--- a/Consumer/PepsiCo.xlsx
+++ b/Consumer/PepsiCo.xlsx
@@ -5,30 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2E23A4-6297-B34F-86FC-C19DA45E245A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82AFD07-AB8A-6946-9403-8ABDF18C821A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -332,9 +355,6 @@
   </si>
   <si>
     <t>Revenue Growth YoY</t>
-  </si>
-  <si>
-    <t>PepsiCo</t>
   </si>
   <si>
     <t>R&amp;D as % of Revenue</t>
@@ -878,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -939,18 +959,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -960,10 +968,6 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -991,12 +995,6 @@
     <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1007,10 +1005,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1021,6 +1015,26 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2395,6 +2409,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=axyhnm&amp;q=XNAS%3aPEP&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>PEPSICO, INC. (XNAS:PEP)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>axyhnm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>186.84</v>
+    <v>154.85759999999999</v>
+    <v>0.54369999999999996</v>
+    <v>0.72</v>
+    <v>3.921E-3</v>
+    <v>-0.15</v>
+    <v>-8.1360000000000004E-4</v>
+    <v>USD</v>
+    <v>PepsiCo, Inc. is a beverage and convenient food company. The Company's segments include Frito-Lay North America, which includes its food businesses in the United States and Canada; Quaker Foods North America, which includes its food businesses, such as cereal, rice, pasta and other branded food, in the United States and Canada; PepsiCo Beverages North America, which includes its beverage businesses in the United States and Canada; Latin America, which includes its beverage and convenient food businesses in Latin America; Europe, which includes its beverage and convenient food businesses in Europe; Africa, Middle East and South Asia (AMESA), which includes all of its beverage and convenient food businesses in Africa, the Middle East and South Asia; and Asia Pacific, Australia and New Zealand and China Region (APAC), which includes all of its beverage and convenient food businesses in Asia Pacific, Australia and New Zealand, and China region. Its brands include Lays, Doritos and Cheetos.</v>
+    <v>315000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>700 ANDERSON HILL RD, PURCHASE, NY, 10577 US</v>
+    <v>184.74</v>
+    <v>Beverages</v>
+    <v>Stock</v>
+    <v>45022.999665416406</v>
+    <v>0</v>
+    <v>183.1</v>
+    <v>253921793400</v>
+    <v>PEPSICO, INC.</v>
+    <v>PEPSICO, INC.</v>
+    <v>183.30199999999999</v>
+    <v>28.313600000000001</v>
+    <v>183.64</v>
+    <v>184.36</v>
+    <v>184.21</v>
+    <v>1377315000</v>
+    <v>PEP</v>
+    <v>PEPSICO, INC. (XNAS:PEP)</v>
+    <v>3389758</v>
+    <v>4517995</v>
+    <v>1986</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2695,10 +3149,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO125" sqref="AO125"/>
+      <selection pane="bottomRight" activeCell="AP99" sqref="AP99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2709,8 +3163,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>95</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>1985</v>
@@ -3106,16 +3560,16 @@
         <v>105700000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AU3" s="19" t="s">
-        <v>112</v>
-      </c>
       <c r="AV3" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3546,16 +4000,16 @@
         <v>45816000000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AU6" s="19" t="s">
-        <v>115</v>
-      </c>
       <c r="AV6" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3814,7 +4268,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3969,16 +4423,16 @@
         <v>0</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4354,21 +4808,21 @@
         <v>34459000000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AU12" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="AV12" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4777,16 +5231,16 @@
         <v>34459000000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT15" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AU15" s="19" t="s">
-        <v>121</v>
-      </c>
       <c r="AV15" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4913,15 +5367,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>2.9267767848874899</v>
+        <v>2.939181792295583</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>28.378237934904604</v>
-      </c>
-      <c r="AV16" s="67">
+        <v>28.498517777777778</v>
+      </c>
+      <c r="AV16" s="57">
         <f>AU101/AM106</f>
-        <v>23.388224956063272</v>
+        <v>23.487354860789935</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -5162,7 +5616,7 @@
         <v>3280000000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -5290,7 +5744,7 @@
     </row>
     <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -6396,7 +6850,7 @@
     </row>
     <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -7145,7 +7599,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -12535,7 +12989,7 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
@@ -13046,10 +13500,10 @@
       <c r="AM83" s="1">
         <v>-1142000000</v>
       </c>
-      <c r="AT83" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU83" s="33"/>
+      <c r="AT83" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU83" s="59"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13169,10 +13623,10 @@
       <c r="AM84" s="1">
         <v>1842000000</v>
       </c>
-      <c r="AT84" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU84" s="35"/>
+      <c r="AT84" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU84" s="61"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13293,7 +13747,7 @@
         <v>92</v>
       </c>
       <c r="AT85" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AU85" s="24">
         <f>AM17</f>
@@ -13419,7 +13873,7 @@
         <v>92</v>
       </c>
       <c r="AT86" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AU86" s="24">
         <f>AM56</f>
@@ -13545,7 +13999,7 @@
         <v>10811000000</v>
       </c>
       <c r="AT87" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AU87" s="24">
         <f>AM61</f>
@@ -13670,17 +14124,17 @@
       <c r="AM88" s="1">
         <v>0</v>
       </c>
-      <c r="AT88" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU88" s="37">
+      <c r="AT88" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU88" s="33">
         <f>AU85/(AU86+AU87)</f>
         <v>2.4033170382124849E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
@@ -13835,7 +14289,7 @@
         <v>0</v>
       </c>
       <c r="AT89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU89" s="24">
         <f>AM27</f>
@@ -14086,10 +14540,10 @@
       <c r="AM91" s="1">
         <v>-873000000</v>
       </c>
-      <c r="AT91" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU91" s="37">
+      <c r="AT91" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU91" s="33">
         <f>AU89/AU90</f>
         <v>0.16132648295189164</v>
       </c>
@@ -14212,10 +14666,10 @@
       <c r="AM92" s="1">
         <v>150000000</v>
       </c>
-      <c r="AT92" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU92" s="39">
+      <c r="AT92" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU92" s="35">
         <f>AU88*(1-AU91)</f>
         <v>2.0155983530193076E-2</v>
       </c>
@@ -14338,10 +14792,10 @@
       <c r="AM93" s="1">
         <v>-883000000</v>
       </c>
-      <c r="AT93" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU93" s="35"/>
+      <c r="AT93" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU93" s="61"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14462,9 +14916,9 @@
         <v>-2430000000</v>
       </c>
       <c r="AT94" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU94" s="40">
+        <v>131</v>
+      </c>
+      <c r="AU94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -14586,11 +15040,12 @@
       <c r="AM95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT95" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU95" s="42">
-        <v>0.54</v>
+      <c r="AT95" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU95" s="64" cm="1">
+        <f t="array" ref="AU95">_FV(A1,"Beta")</f>
+        <v>0.54369999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14712,9 +15167,9 @@
         <v>92</v>
       </c>
       <c r="AT96" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU96" s="40">
+        <v>133</v>
+      </c>
+      <c r="AU96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14836,12 +15291,12 @@
       <c r="AM97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT97" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU97" s="39">
+      <c r="AT97" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU97" s="35">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>6.4197000000000004E-2</v>
+        <v>6.4356284999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -14962,10 +15417,10 @@
       <c r="AM98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT98" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU98" s="35"/>
+      <c r="AT98" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU98" s="61"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15086,7 +15541,7 @@
         <v>92</v>
       </c>
       <c r="AT99" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AU99" s="24">
         <f>AU86+AU87</f>
@@ -15211,12 +15666,12 @@
       <c r="AM100" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AT100" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU100" s="37">
+      <c r="AT100" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU100" s="33">
         <f>AU99/AU103</f>
-        <v>0.13384095908106677</v>
+        <v>0.13335140276525315</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15337,12 +15792,12 @@
       <c r="AM101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT101" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU101" s="44">
-        <f>AO116*AM34</f>
-        <v>252850100000.00003</v>
+      <c r="AT101" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU101" s="38" cm="1">
+        <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
+        <v>253921793400</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15463,12 +15918,12 @@
       <c r="AM102" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AT102" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU102" s="37">
+      <c r="AT102" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU102" s="33">
         <f>AU101/AU103</f>
-        <v>0.86615904091893337</v>
+        <v>0.86664859723474685</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15589,12 +16044,12 @@
       <c r="AM103" s="1">
         <v>5707000000</v>
       </c>
-      <c r="AT103" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU103" s="45">
+      <c r="AT103" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU103" s="39">
         <f>AU99+AU101</f>
-        <v>291921100000</v>
+        <v>292992793400</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15715,14 +16170,14 @@
       <c r="AM104" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT104" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU104" s="35"/>
+      <c r="AT104" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU104" s="61"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -15880,11 +16335,11 @@
       <c r="AR105" s="15"/>
       <c r="AS105" s="15"/>
       <c r="AT105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>5.8302508116775995E-2</v>
+        <v>5.8462112796354167E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16005,33 +16460,33 @@
       <c r="AM106" s="1">
         <v>10811000000</v>
       </c>
-      <c r="AN106" s="46">
+      <c r="AN106" s="40">
         <f>AM106*(1+$AU$106)</f>
         <v>11256623990.667992</v>
       </c>
-      <c r="AO106" s="46">
+      <c r="AO106" s="40">
         <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
         <v>11720616378.436979</v>
       </c>
-      <c r="AP106" s="46">
+      <c r="AP106" s="40">
         <f t="shared" si="9"/>
         <v>12203734299.410774</v>
       </c>
-      <c r="AQ106" s="46">
+      <c r="AQ106" s="40">
         <f t="shared" si="9"/>
         <v>12706766098.463154</v>
       </c>
-      <c r="AR106" s="46">
+      <c r="AR106" s="40">
         <f t="shared" si="9"/>
         <v>13230532615.647678</v>
       </c>
-      <c r="AS106" s="47" t="s">
+      <c r="AS106" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT106" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="AT106" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU106" s="49">
+      <c r="AU106" s="43">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>4.1219497795577806E-2</v>
       </c>
@@ -16076,150 +16531,151 @@
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
       <c r="AM107" s="13"/>
-      <c r="AN107" s="47"/>
-      <c r="AO107" s="47"/>
-      <c r="AP107" s="47"/>
-      <c r="AQ107" s="47"/>
-      <c r="AR107" s="50">
+      <c r="AN107" s="41"/>
+      <c r="AO107" s="41"/>
+      <c r="AP107" s="41"/>
+      <c r="AQ107" s="41"/>
+      <c r="AR107" s="44">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>407215453066.95465</v>
-      </c>
-      <c r="AS107" s="51" t="s">
+        <v>405273152163.7937</v>
+      </c>
+      <c r="AS107" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT107" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="AT107" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU107" s="53">
+      <c r="AU107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="50">
+      <c r="AN108" s="44">
         <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
         <v>11256623990.667992</v>
       </c>
-      <c r="AO108" s="50">
+      <c r="AO108" s="44">
         <f t="shared" si="10"/>
         <v>11720616378.436979</v>
       </c>
-      <c r="AP108" s="50">
+      <c r="AP108" s="44">
         <f t="shared" si="10"/>
         <v>12203734299.410774</v>
       </c>
-      <c r="AQ108" s="50">
+      <c r="AQ108" s="44">
         <f>AQ107+AQ106</f>
         <v>12706766098.463154</v>
       </c>
-      <c r="AR108" s="50">
+      <c r="AR108" s="44">
         <f>AR107+AR106</f>
-        <v>420445985682.60236</v>
-      </c>
-      <c r="AS108" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT108" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU108" s="55">
+        <v>418503684779.44141</v>
+      </c>
+      <c r="AS108" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT108" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU108" s="49">
         <f>AU105</f>
-        <v>5.8302508116775995E-2</v>
+        <v>5.8462112796354167E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO109" s="57"/>
+      <c r="AN109" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO109" s="63"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO110" s="44">
+      <c r="AN110" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO110" s="38">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>358236336819.44849</v>
+        <v>356520127184.59045</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO111" s="44">
+      <c r="AN111" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO111" s="38">
         <f>AM40</f>
         <v>5348000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO112" s="44">
+      <c r="AN112" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO112" s="38">
         <f>AU99</f>
         <v>39071000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO113" s="44">
+      <c r="AN113" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO113" s="38">
         <f>AO110+AO111-AO112</f>
-        <v>324513336819.44849</v>
+        <v>322797127184.59045</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO114" s="59">
+      <c r="AN114" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO114" s="51">
         <f>AM34*(1+(5*AS16))</f>
         <v>1337167932.2715361</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO115" s="61">
+      <c r="AN115" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>242.68704699504428</v>
+        <v>241.40358095204505</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO116" s="63">
-        <v>182.3</v>
+      <c r="AN116" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO116" s="65" cm="1">
+        <f t="array" ref="AO116">_FV(A1,"Price")</f>
+        <v>184.36</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO117" s="65">
+      <c r="AN117" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>0.33125094347254125</v>
+        <v>0.30941408630963885</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO118" s="66" t="str">
+      <c r="AN118" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO118" s="56" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AN109:AO109"/>
     <mergeCell ref="AT83:AU83"/>
     <mergeCell ref="AT84:AU84"/>
     <mergeCell ref="AT93:AU93"/>
     <mergeCell ref="AT98:AU98"/>
     <mergeCell ref="AT104:AU104"/>
-    <mergeCell ref="AN109:AO109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/PEP" display="ROIC.AI | PEP" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/PepsiCo.xlsx
+++ b/Consumer/PepsiCo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82AFD07-AB8A-6946-9403-8ABDF18C821A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F578B8A-913F-674E-ABFD-C557DA123B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,6 +1015,14 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,14 +1035,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2529,13 +2529,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>186.84</v>
+    <v>195.58</v>
     <v>154.85759999999999</v>
-    <v>0.54369999999999996</v>
-    <v>0.72</v>
-    <v>3.921E-3</v>
-    <v>-0.15</v>
-    <v>-8.1360000000000004E-4</v>
+    <v>0.54559999999999997</v>
+    <v>1.07</v>
+    <v>5.5079999999999999E-3</v>
+    <v>0.01</v>
+    <v>5.1190000000000003E-5</v>
     <v>USD</v>
     <v>PepsiCo, Inc. is a beverage and convenient food company. The Company's segments include Frito-Lay North America, which includes its food businesses in the United States and Canada; Quaker Foods North America, which includes its food businesses, such as cereal, rice, pasta and other branded food, in the United States and Canada; PepsiCo Beverages North America, which includes its beverage businesses in the United States and Canada; Latin America, which includes its beverage and convenient food businesses in Latin America; Europe, which includes its beverage and convenient food businesses in Europe; Africa, Middle East and South Asia (AMESA), which includes all of its beverage and convenient food businesses in Africa, the Middle East and South Asia; and Asia Pacific, Australia and New Zealand and China Region (APAC), which includes all of its beverage and convenient food businesses in Asia Pacific, Australia and New Zealand, and China region. Its brands include Lays, Doritos and Cheetos.</v>
     <v>315000</v>
@@ -2543,25 +2543,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 ANDERSON HILL RD, PURCHASE, NY, 10577 US</v>
-    <v>184.74</v>
+    <v>195.52</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45022.999665416406</v>
+    <v>45057.999669501565</v>
     <v>0</v>
-    <v>183.1</v>
-    <v>253921793400</v>
+    <v>192.9975</v>
+    <v>269118550620</v>
     <v>PEPSICO, INC.</v>
     <v>PEPSICO, INC.</v>
-    <v>183.30199999999999</v>
-    <v>28.313600000000001</v>
-    <v>183.64</v>
-    <v>184.36</v>
-    <v>184.21</v>
-    <v>1377315000</v>
+    <v>194.28</v>
+    <v>40.316400000000002</v>
+    <v>194.27</v>
+    <v>195.34</v>
+    <v>195.35</v>
+    <v>1377693000</v>
     <v>PEP</v>
     <v>PEPSICO, INC. (XNAS:PEP)</v>
-    <v>3389758</v>
-    <v>4517995</v>
+    <v>3690431</v>
+    <v>3640528</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -3149,10 +3149,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP99" sqref="AP99"/>
+      <selection pane="bottomRight" activeCell="AP95" activeCellId="1" sqref="AM122 AP95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5367,15 +5367,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>2.939181792295583</v>
+        <v>3.1150864735160662</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>28.498517777777778</v>
+        <v>30.204102202020202</v>
       </c>
       <c r="AV16" s="57">
         <f>AU101/AM106</f>
-        <v>23.487354860789935</v>
+        <v>24.893030304319673</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -13500,10 +13500,10 @@
       <c r="AM83" s="1">
         <v>-1142000000</v>
       </c>
-      <c r="AT83" s="58" t="s">
+      <c r="AT83" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="AU83" s="59"/>
+      <c r="AU83" s="63"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13623,10 +13623,10 @@
       <c r="AM84" s="1">
         <v>1842000000</v>
       </c>
-      <c r="AT84" s="60" t="s">
+      <c r="AT84" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="AU84" s="61"/>
+      <c r="AU84" s="65"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14792,10 +14792,10 @@
       <c r="AM93" s="1">
         <v>-883000000</v>
       </c>
-      <c r="AT93" s="60" t="s">
+      <c r="AT93" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="AU93" s="61"/>
+      <c r="AU93" s="65"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15043,9 +15043,9 @@
       <c r="AT95" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="AU95" s="64" cm="1">
+      <c r="AU95" s="58" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.54369999999999996</v>
+        <v>0.54559999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15296,7 +15296,7 @@
       </c>
       <c r="AU97" s="35">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>6.4356284999999999E-2</v>
+        <v>6.4438080000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15417,10 +15417,10 @@
       <c r="AM98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT98" s="60" t="s">
+      <c r="AT98" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="AU98" s="61"/>
+      <c r="AU98" s="65"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15671,7 +15671,7 @@
       </c>
       <c r="AU100" s="33">
         <f>AU99/AU103</f>
-        <v>0.13335140276525315</v>
+        <v>0.12677587517616662</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15797,7 +15797,7 @@
       </c>
       <c r="AU101" s="38" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>253921793400</v>
+        <v>269118550620</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="AU102" s="33">
         <f>AU101/AU103</f>
-        <v>0.86664859723474685</v>
+        <v>0.87322412482383338</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16049,7 +16049,7 @@
       </c>
       <c r="AU103" s="39">
         <f>AU99+AU101</f>
-        <v>292992793400</v>
+        <v>308189550620</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16170,10 +16170,10 @@
       <c r="AM104" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AT104" s="60" t="s">
+      <c r="AT104" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="AU104" s="61"/>
+      <c r="AU104" s="65"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16339,7 +16339,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>5.8462112796354167E-2</v>
+        <v>5.8824178465404796E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16537,7 +16537,7 @@
       <c r="AQ107" s="41"/>
       <c r="AR107" s="44">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>405273152163.7937</v>
+        <v>400934968602.69043</v>
       </c>
       <c r="AS107" s="45" t="s">
         <v>144</v>
@@ -16568,7 +16568,7 @@
       </c>
       <c r="AR108" s="44">
         <f>AR107+AR106</f>
-        <v>418503684779.44141</v>
+        <v>414165501218.33813</v>
       </c>
       <c r="AS108" s="45" t="s">
         <v>140</v>
@@ -16578,14 +16578,14 @@
       </c>
       <c r="AU108" s="49">
         <f>AU105</f>
-        <v>5.8462112796354167E-2</v>
+        <v>5.8824178465404796E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="62" t="s">
+      <c r="AN109" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="AO109" s="63"/>
+      <c r="AO109" s="61"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="AN110" s="50" t="s">
@@ -16593,7 +16593,7 @@
       </c>
       <c r="AO110" s="38">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>356520127184.59045</v>
+        <v>352686941382.07739</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16620,7 +16620,7 @@
       </c>
       <c r="AO113" s="38">
         <f>AO110+AO111-AO112</f>
-        <v>322797127184.59045</v>
+        <v>318963941382.07739</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16638,16 +16638,16 @@
       </c>
       <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>241.40358095204505</v>
+        <v>238.53693592564107</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AN116" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="AO116" s="65" cm="1">
+      <c r="AO116" s="59" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>184.36</v>
+        <v>195.34</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16656,7 +16656,7 @@
       </c>
       <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>0.30941408630963885</v>
+        <v>0.22113717582492609</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/PepsiCo.xlsx
+++ b/Consumer/PepsiCo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F578B8A-913F-674E-ABFD-C557DA123B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED21FD97-15AE-4549-8E4E-B32340801401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2529,13 +2529,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>195.58</v>
-    <v>154.85759999999999</v>
-    <v>0.54559999999999997</v>
-    <v>1.07</v>
-    <v>5.5079999999999999E-3</v>
-    <v>0.01</v>
-    <v>5.1190000000000003E-5</v>
+    <v>196.88</v>
+    <v>160.97999999999999</v>
+    <v>0.54979999999999996</v>
+    <v>-1.01</v>
+    <v>-5.391E-3</v>
     <v>USD</v>
     <v>PepsiCo, Inc. is a beverage and convenient food company. The Company's segments include Frito-Lay North America, which includes its food businesses in the United States and Canada; Quaker Foods North America, which includes its food businesses, such as cereal, rice, pasta and other branded food, in the United States and Canada; PepsiCo Beverages North America, which includes its beverage businesses in the United States and Canada; Latin America, which includes its beverage and convenient food businesses in Latin America; Europe, which includes its beverage and convenient food businesses in Europe; Africa, Middle East and South Asia (AMESA), which includes all of its beverage and convenient food businesses in Africa, the Middle East and South Asia; and Asia Pacific, Australia and New Zealand and China Region (APAC), which includes all of its beverage and convenient food businesses in Asia Pacific, Australia and New Zealand, and China region. Its brands include Lays, Doritos and Cheetos.</v>
     <v>315000</v>
@@ -2543,25 +2541,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 ANDERSON HILL RD, PURCHASE, NY, 10577 US</v>
-    <v>195.52</v>
+    <v>188</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45057.999669501565</v>
+    <v>45100.783364305469</v>
     <v>0</v>
-    <v>192.9975</v>
-    <v>269118550620</v>
+    <v>186.3</v>
+    <v>256719313620</v>
     <v>PEPSICO, INC.</v>
     <v>PEPSICO, INC.</v>
-    <v>194.28</v>
-    <v>40.316400000000002</v>
-    <v>194.27</v>
-    <v>195.34</v>
-    <v>195.35</v>
+    <v>188</v>
+    <v>38.880299999999998</v>
+    <v>187.35</v>
+    <v>186.34</v>
     <v>1377693000</v>
     <v>PEP</v>
     <v>PEPSICO, INC. (XNAS:PEP)</v>
-    <v>3690431</v>
-    <v>3640528</v>
+    <v>2128746</v>
+    <v>5102177</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -2593,8 +2590,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2615,7 +2610,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2632,7 +2626,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2643,16 +2637,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2718,19 +2709,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2775,9 +2760,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2785,9 +2767,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3149,10 +3128,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP95" activeCellId="1" sqref="AM122 AP95"/>
+      <selection pane="bottomRight" activeCell="AL126" sqref="AL126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5367,15 +5346,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>3.1150864735160662</v>
+        <v>2.9715634968515605</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>30.204102202020202</v>
+        <v>28.81249311111111</v>
       </c>
       <c r="AV16" s="57">
         <f>AU101/AM106</f>
-        <v>24.893030304319673</v>
+        <v>23.746120952733328</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15045,7 +15024,7 @@
       </c>
       <c r="AU95" s="58" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.54559999999999997</v>
+        <v>0.54979999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15296,7 +15275,7 @@
       </c>
       <c r="AU97" s="35">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>6.4438080000000009E-2</v>
+        <v>6.4618889999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15671,7 +15650,7 @@
       </c>
       <c r="AU100" s="33">
         <f>AU99/AU103</f>
-        <v>0.12677587517616662</v>
+        <v>0.13209019430634322</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15797,7 +15776,7 @@
       </c>
       <c r="AU101" s="38" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>269118550620</v>
+        <v>256719313620</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15923,7 +15902,7 @@
       </c>
       <c r="AU102" s="33">
         <f>AU101/AU103</f>
-        <v>0.87322412482383338</v>
+        <v>0.86790980569365683</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16049,7 +16028,7 @@
       </c>
       <c r="AU103" s="39">
         <f>AU99+AU101</f>
-        <v>308189550620</v>
+        <v>295790313620</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16339,7 +16318,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>5.8824178465404796E-2</v>
+        <v>5.8745776044978444E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16537,7 +16516,7 @@
       <c r="AQ107" s="41"/>
       <c r="AR107" s="44">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>400934968602.69043</v>
+        <v>401866471020.35944</v>
       </c>
       <c r="AS107" s="45" t="s">
         <v>144</v>
@@ -16568,7 +16547,7 @@
       </c>
       <c r="AR108" s="44">
         <f>AR107+AR106</f>
-        <v>414165501218.33813</v>
+        <v>415097003636.00714</v>
       </c>
       <c r="AS108" s="45" t="s">
         <v>140</v>
@@ -16578,7 +16557,7 @@
       </c>
       <c r="AU108" s="49">
         <f>AU105</f>
-        <v>5.8824178465404796E-2</v>
+        <v>5.8745776044978444E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16593,7 +16572,7 @@
       </c>
       <c r="AO110" s="38">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>352686941382.07739</v>
+        <v>353510007837.39075</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16620,7 +16599,7 @@
       </c>
       <c r="AO113" s="38">
         <f>AO110+AO111-AO112</f>
-        <v>318963941382.07739</v>
+        <v>319787007837.39075</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16638,7 +16617,7 @@
       </c>
       <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>238.53693592564107</v>
+        <v>239.15246553523556</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16647,7 +16626,7 @@
       </c>
       <c r="AO116" s="59" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>195.34</v>
+        <v>186.34</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16656,7 +16635,7 @@
       </c>
       <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>0.22113717582492609</v>
+        <v>0.28341990734804967</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/PepsiCo.xlsx
+++ b/Consumer/PepsiCo.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED21FD97-15AE-4549-8E4E-B32340801401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9883D473-C9C9-FF4E-BF0A-52C31F01E77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>Income Tax Expense</t>
-  </si>
-  <si>
-    <t>FCF Growth YoY</t>
   </si>
   <si>
     <t>WACC</t>
@@ -498,9 +495,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -551,18 +545,56 @@
   <si>
     <t>P/FCF</t>
   </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Projection</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -679,6 +711,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -729,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +874,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +888,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,99 +935,144 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,7 +1125,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>PEP</a:t>
+              <a:t>PepsiCo</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1123,15 +1163,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.2446280991735538E-2"/>
-          <c:y val="0.1161933750620595"/>
-          <c:w val="0.87127272727272731"/>
-          <c:h val="0.73090094144831774"/>
+          <c:x val="0.10112582781456952"/>
+          <c:y val="0.15844124751220362"/>
+          <c:w val="0.83529801324503317"/>
+          <c:h val="0.58163034433329086"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1180,12 +1220,150 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AM$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AR$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>8056700000</c:v>
                 </c:pt>
@@ -1299,13 +1477,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>86392000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>92438000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>96717000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100700000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>104900000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>109700000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C3EE-2548-B572-27C305ADAE7F}"/>
+              <c16:uniqueId val="{00000000-26A2-0D40-922E-B374C61C880A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1314,11 +1507,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1356,132 +1549,285 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AR$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>787600000</c:v>
+                  <c:v>543700000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>680300000</c:v>
+                  <c:v>457800000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>950100000</c:v>
+                  <c:v>594800000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1137600000</c:v>
+                  <c:v>762200000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2122500000</c:v>
+                  <c:v>901400000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2537700000</c:v>
+                  <c:v>1076900000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2704800000</c:v>
+                  <c:v>1080200000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2186300000</c:v>
+                  <c:v>374300000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3866700000</c:v>
+                  <c:v>1587900000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4208900000</c:v>
+                  <c:v>1752000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4172000000</c:v>
+                  <c:v>1606000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3766000000</c:v>
+                  <c:v>1149000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4066000000</c:v>
+                  <c:v>2142000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3497000000</c:v>
+                  <c:v>1993000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4688000000</c:v>
+                  <c:v>2050000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4170000000</c:v>
+                  <c:v>2183000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5111000000</c:v>
+                  <c:v>2662000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5980000000</c:v>
+                  <c:v>3313000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6213000000</c:v>
+                  <c:v>3568000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6848000000</c:v>
+                  <c:v>4212000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7690000000</c:v>
+                  <c:v>4078000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8395000000</c:v>
+                  <c:v>5642000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9057000000</c:v>
+                  <c:v>5658000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8893000000</c:v>
+                  <c:v>5142000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10078000000</c:v>
+                  <c:v>5946000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11444000000</c:v>
+                  <c:v>6320000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12408000000</c:v>
+                  <c:v>6443000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11856000000</c:v>
+                  <c:v>6178000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12418000000</c:v>
+                  <c:v>6740000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12246000000</c:v>
+                  <c:v>6513000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10779000000</c:v>
+                  <c:v>5452000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12213000000</c:v>
+                  <c:v>6329000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13071000000</c:v>
+                  <c:v>4857000000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13069000000</c:v>
+                  <c:v>12515000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12848000000</c:v>
+                  <c:v>7314000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12690000000</c:v>
+                  <c:v>7120000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14838000000</c:v>
+                  <c:v>7618000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14856000000</c:v>
+                  <c:v>8910000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10360000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11145000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12081000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12480000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13401000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C3EE-2548-B572-27C305ADAE7F}"/>
+              <c16:uniqueId val="{00000001-26A2-0D40-922E-B374C61C880A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1490,11 +1836,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1532,12 +1878,150 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AR$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1651,13 +2135,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>10811000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9159000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10139000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10862000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12520000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13410000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C3EE-2548-B572-27C305ADAE7F}"/>
+              <c16:uniqueId val="{00000002-26A2-0D40-922E-B374C61C880A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1669,13 +2168,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="513360511"/>
-        <c:axId val="513362239"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="317063983"/>
+        <c:axId val="317065711"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="513360511"/>
+        <c:axId val="317063983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,7 +2202,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1715,7 +2214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513362239"/>
+        <c:crossAx val="317065711"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1723,7 +2222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="513362239"/>
+        <c:axId val="317065711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1772,7 +2271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513360511"/>
+        <c:crossAx val="317063983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1790,10 +2289,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37491934665191645"/>
-          <c:y val="0.92575485224040577"/>
-          <c:w val="0.30305376456042166"/>
-          <c:h val="4.8317039332959041E-2"/>
+          <c:x val="0.35079710069353909"/>
+          <c:y val="0.8891169158006198"/>
+          <c:w val="0.31429983834802105"/>
+          <c:h val="6.5885098732362715E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1900,7 +2399,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2138,7 +2637,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2373,22 +2871,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEECDA2-A23D-0099-573F-841F6CD5A317}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF81BED-F298-458F-685C-3FCBE2180D23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,6 +2905,70 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Fidelity Growth"/>
+      <sheetName val="IRA"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Best Mature"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.8019999999999993E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2531,9 +3093,9 @@
     <v>Powered by Refinitiv</v>
     <v>196.88</v>
     <v>160.97999999999999</v>
-    <v>0.54979999999999996</v>
-    <v>-1.01</v>
-    <v>-5.391E-3</v>
+    <v>0.57640000000000002</v>
+    <v>1.21</v>
+    <v>7.2150000000000001E-3</v>
     <v>USD</v>
     <v>PepsiCo, Inc. is a beverage and convenient food company. The Company's segments include Frito-Lay North America, which includes its food businesses in the United States and Canada; Quaker Foods North America, which includes its food businesses, such as cereal, rice, pasta and other branded food, in the United States and Canada; PepsiCo Beverages North America, which includes its beverage businesses in the United States and Canada; Latin America, which includes its beverage and convenient food businesses in Latin America; Europe, which includes its beverage and convenient food businesses in Europe; Africa, Middle East and South Asia (AMESA), which includes all of its beverage and convenient food businesses in Africa, the Middle East and South Asia; and Asia Pacific, Australia and New Zealand and China Region (APAC), which includes all of its beverage and convenient food businesses in Asia Pacific, Australia and New Zealand, and China region. Its brands include Lays, Doritos and Cheetos.</v>
     <v>315000</v>
@@ -2541,24 +3103,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 ANDERSON HILL RD, PURCHASE, NY, 10577 US</v>
-    <v>188</v>
+    <v>169.13</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45100.783364305469</v>
+    <v>45203.993307117969</v>
     <v>0</v>
-    <v>186.3</v>
-    <v>256719313620</v>
+    <v>167.06</v>
+    <v>232518296710</v>
     <v>PEPSICO, INC.</v>
     <v>PEPSICO, INC.</v>
-    <v>188</v>
-    <v>38.880299999999998</v>
-    <v>187.35</v>
-    <v>186.34</v>
-    <v>1377693000</v>
+    <v>168.45</v>
+    <v>29.246600000000001</v>
+    <v>167.7</v>
+    <v>168.91</v>
+    <v>1376581000</v>
     <v>PEP</v>
     <v>PEPSICO, INC. (XNAS:PEP)</v>
-    <v>2128746</v>
-    <v>5102177</v>
+    <v>390</v>
+    <v>4705130</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -2711,10 +3273,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3125,13 +3687,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV118"/>
+  <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL126" sqref="AL126"/>
+      <selection pane="bottomRight" activeCell="AM114" sqref="AM114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3259,19 +3821,19 @@
       <c r="AM1" s="8">
         <v>2022</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2023</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2024</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2025</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2026</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3280,127 +3842,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
@@ -3523,206 +4085,206 @@
       <c r="AM3" s="1">
         <v>86392000000</v>
       </c>
-      <c r="AN3" s="28">
-        <v>89829000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>94250000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>99302000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>101600000000</v>
-      </c>
-      <c r="AR3" s="28">
-        <v>105700000000</v>
+      <c r="AN3" s="24">
+        <v>92438000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>96717000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>100700000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>104900000000</v>
+      </c>
+      <c r="AR3" s="24">
+        <v>109700000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>111</v>
-      </c>
       <c r="AV3" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="43">
         <f>(C3/B3)-1</f>
         <v>0.15317685901175415</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="43">
         <f>(D3/C3)-1</f>
         <v>0.23619064020321168</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="43">
         <f>(E3/D3)-1</f>
         <v>0.13250095775432724</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="43">
         <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
         <v>0.17186130545091105</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="43">
         <f t="shared" si="0"/>
         <v>0.16797223534351535</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="43">
         <f t="shared" si="0"/>
         <v>0.10140034938520559</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="43">
         <f t="shared" si="0"/>
         <v>0.1204667506464232</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="43">
         <f t="shared" si="0"/>
         <v>0.13885753299954473</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="43">
         <f t="shared" si="0"/>
         <v>0.13795377427490041</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="43">
         <f t="shared" si="0"/>
         <v>6.8438206824855019E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="43">
         <f t="shared" si="0"/>
         <v>4.0235363729002938E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="43">
         <f t="shared" si="0"/>
         <v>-0.33901090219623953</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="43">
         <f t="shared" si="0"/>
         <v>6.8413252378448197E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="43">
         <f t="shared" si="0"/>
         <v>-8.8643279040630074E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="43">
         <f t="shared" si="0"/>
         <v>3.4860313251829922E-3</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="43">
         <f t="shared" si="0"/>
         <v>0.31788824738232702</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="43">
         <f t="shared" si="0"/>
         <v>-6.768145535548542E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="43">
         <f t="shared" si="0"/>
         <v>7.402835297865562E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="43">
         <f t="shared" si="0"/>
         <v>8.4906010159059742E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="43">
         <f t="shared" si="0"/>
         <v>0.11281227572536823</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="43">
         <f t="shared" si="0"/>
         <v>7.9079909096492873E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="43">
         <f t="shared" si="0"/>
         <v>0.12343114096251817</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="43">
         <f t="shared" si="0"/>
         <v>9.568323453412364E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="43">
         <f t="shared" si="0"/>
         <v>-4.3929620124394386E-4</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="43">
         <f t="shared" si="0"/>
         <v>0.33785159141376764</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="43">
         <f t="shared" si="0"/>
         <v>0.14983229018984057</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="43">
         <f t="shared" si="0"/>
         <v>-1.5217129796703976E-2</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="43">
         <f t="shared" si="0"/>
         <v>1.4093324375496152E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="43">
         <f t="shared" si="0"/>
         <v>4.0352330045922979E-3</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="43">
         <f t="shared" si="0"/>
         <v>-5.4391674039860227E-2</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="43">
         <f t="shared" si="0"/>
         <v>-4.0757421974118024E-3</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="43">
         <f t="shared" si="0"/>
         <v>1.1560693641618602E-2</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="43">
         <f t="shared" si="0"/>
         <v>1.7882723337268702E-2</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="43">
         <f t="shared" si="0"/>
         <v>3.8663181825211446E-2</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="43">
         <f t="shared" si="0"/>
         <v>4.7810485251857493E-2</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="43">
         <f t="shared" si="0"/>
         <v>0.12934121525606779</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="43">
         <f t="shared" si="0"/>
         <v>8.7047336235750006E-2</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>3.9783776275581051E-2</v>
+        <v>6.9983331789980507E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>4.9215732113237376E-2</v>
+        <v>4.6290486596421321E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>5.3602122015915077E-2</v>
+        <v>4.1182005231758634E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>2.3141527864494194E-2</v>
+        <v>4.170804369414105E-2</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>4.0354330708661346E-2</v>
+        <v>4.5757864632983702E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -3737,7 +4299,7 @@
         <v>7.1005888793812311E-2</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>0.27328995595211897</v>
       </c>
     </row>
@@ -3979,16 +4541,16 @@
         <v>45816000000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU6" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="AT6" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU6" s="19" t="s">
-        <v>114</v>
-      </c>
       <c r="AV6" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4122,7 +4684,7 @@
         <v>0.1031</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>0.12513890175016204</v>
       </c>
     </row>
@@ -4131,73 +4693,73 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y8" s="1">
         <v>364000000</v>
@@ -4209,7 +4771,7 @@
         <v>488000000</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC8" s="1">
         <v>0</v>
@@ -4247,7 +4809,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4402,16 +4964,16 @@
         <v>0</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4419,34 +4981,34 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1">
         <v>11712000000</v>
@@ -4473,7 +5035,7 @@
         <v>8523000000</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1">
         <v>10299000000</v>
@@ -4524,13 +5086,13 @@
         <v>25809000000</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AS10" s="17">
         <f>AM9</f>
@@ -4546,7 +5108,7 @@
       </c>
       <c r="AV10" s="20">
         <f>AM89</f>
-        <v>0</v>
+        <v>1.0220853782757663E-2</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4554,118 +5116,118 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -4787,21 +5349,21 @@
         <v>34459000000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT12" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AT12" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU12" s="19" t="s">
-        <v>117</v>
-      </c>
       <c r="AV12" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -5007,7 +5569,7 @@
         <v>1576500000</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1">
         <v>1123000000</v>
@@ -5082,13 +5644,13 @@
         <v>-560000000</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -5210,16 +5772,16 @@
         <v>34459000000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT15" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU15" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AT15" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU15" s="19" t="s">
-        <v>120</v>
-      </c>
       <c r="AV15" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5340,95 +5902,95 @@
       <c r="AM16" s="1">
         <v>75035000000</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="25">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-7.1855901555103047E-3</v>
       </c>
-      <c r="AT16" s="30">
-        <f>AU101/AM3</f>
-        <v>2.9715634968515605</v>
-      </c>
-      <c r="AU16" s="30">
-        <f>AU101/AM28</f>
-        <v>28.81249311111111</v>
-      </c>
-      <c r="AV16" s="57">
-        <f>AU101/AM106</f>
-        <v>23.746120952733328</v>
+      <c r="AT16" s="34">
+        <f>AU102/AM3</f>
+        <v>2.6914331964765257</v>
+      </c>
+      <c r="AU16" s="34">
+        <f>AU102/AM28</f>
+        <v>26.09632959708193</v>
+      </c>
+      <c r="AV16" s="35">
+        <f>AU102/AM107</f>
+        <v>21.507566063268893</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1">
         <v>329000000</v>
@@ -5476,21 +6038,21 @@
         <v>939000000</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="1">
         <v>772000000</v>
@@ -5595,10 +6157,19 @@
         <v>3280000000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV18" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5716,14 +6287,41 @@
       <c r="AM19" s="10">
         <v>14856000000</v>
       </c>
-      <c r="AS19" s="31">
+      <c r="AN19" s="38">
+        <v>16798000000</v>
+      </c>
+      <c r="AO19" s="38">
+        <v>18139000000</v>
+      </c>
+      <c r="AP19" s="38">
+        <v>19134000000</v>
+      </c>
+      <c r="AQ19" s="38">
+        <v>21047000000</v>
+      </c>
+      <c r="AR19" s="38">
+        <v>22254000000</v>
+      </c>
+      <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-33723000000</v>
       </c>
+      <c r="AT19" s="34">
+        <f>AU102/AN3</f>
+        <v>2.5153973118198145</v>
+      </c>
+      <c r="AU19" s="34">
+        <f>AU102/AN28</f>
+        <v>22.443851033783783</v>
+      </c>
+      <c r="AV19" s="35">
+        <f>AU102/AN107</f>
+        <v>25.386865019106889</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5739,7 +6337,7 @@
         <v>0.19734764761604051</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AM20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AR20" si="3">(F19/E19)-1</f>
         <v>0.86577004219409281</v>
       </c>
       <c r="G20" s="15">
@@ -5874,8 +6472,28 @@
         <f t="shared" si="3"/>
         <v>1.2131014961584974E-3</v>
       </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.13072159396876692</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="3"/>
+        <v>7.9830932253839748E-2</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="3"/>
+        <v>5.4854181597662421E-2</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="3"/>
+        <v>9.9979094805058955E-2</v>
+      </c>
+      <c r="AR20" s="16">
+        <f t="shared" si="3"/>
+        <v>5.7347840547346429E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5993,8 +6611,37 @@
       <c r="AM21" s="2">
         <v>0.17199999999999999</v>
       </c>
+      <c r="AN21" s="39">
+        <f>AN19/AN3</f>
+        <v>0.18172180272182437</v>
+      </c>
+      <c r="AO21" s="39">
+        <f t="shared" ref="AO21:AR21" si="4">AO19/AO3</f>
+        <v>0.18754717371299773</v>
+      </c>
+      <c r="AP21" s="39">
+        <f t="shared" si="4"/>
+        <v>0.19000993048659384</v>
+      </c>
+      <c r="AQ21" s="39">
+        <f t="shared" si="4"/>
+        <v>0.20063870352716873</v>
+      </c>
+      <c r="AR21" s="39">
+        <f t="shared" si="4"/>
+        <v>0.20286235186873292</v>
+      </c>
+      <c r="AT21" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6112,8 +6759,20 @@
       <c r="AM22" s="10">
         <v>11512000000</v>
       </c>
+      <c r="AT22" s="17">
+        <f>SUM(AN29:AR29)/5</f>
+        <v>8.5863938064523679E-2</v>
+      </c>
+      <c r="AU22" s="36">
+        <f>AM98/AU102*-1</f>
+        <v>2.6544147653454569E-2</v>
+      </c>
+      <c r="AV22" s="37">
+        <f>AN107/AU102</f>
+        <v>3.9390448534995202E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6232,7 +6891,7 @@
         <v>0.1333</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6351,7 +7010,7 @@
         <v>-807000000</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6470,7 +7129,7 @@
         <v>10705000000</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6589,7 +7248,7 @@
         <v>0.1239</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6708,7 +7367,7 @@
         <v>1727000000</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6826,10 +7485,25 @@
       <c r="AM28" s="11">
         <v>8910000000</v>
       </c>
+      <c r="AN28" s="40">
+        <v>10360000000</v>
+      </c>
+      <c r="AO28" s="40">
+        <v>11145000000</v>
+      </c>
+      <c r="AP28" s="40">
+        <v>12081000000</v>
+      </c>
+      <c r="AQ28" s="40">
+        <v>12480000000</v>
+      </c>
+      <c r="AR28" s="40">
+        <v>13401000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6845,143 +7519,163 @@
         <v>0.28143913920645591</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AM29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AR29" si="5">(F28/E28)-1</f>
         <v>0.18262923117292051</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19469713778566677</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0643513789581078E-3</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.65349009442695793</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2423189954581888</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10334403929718494</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.333333333333337E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.28455790784557911</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86422976501305482</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.9561157796451889E-2</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8600100351229285E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4878048780487863E-2</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21942281264315167</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24455296769346346</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6969514035617248E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18049327354260081</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.1813865147198528E-2</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38352133398724875</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8358738036158293E-3</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.1198303287380655E-2</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15635939323220538</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2899428187016548E-2</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9462025316455689E-2</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.1129908427750994E-2</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.0967950793136909E-2</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.3679525222551909E-2</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.16290495931214499</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16085840058694068</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.23258018644335599</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5766934321597694</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.41558130243707547</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.6524473612250521E-2</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9943820224719122E-2</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16959831976896833</v>
       </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.16273849607182944</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="5"/>
+        <v>7.5772200772200815E-2</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="5"/>
+        <v>8.398384925975777E-2</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="5"/>
+        <v>3.3027067295753554E-2</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" si="5"/>
+        <v>7.3798076923076827E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7099,8 +7793,28 @@
       <c r="AM30" s="2">
         <v>0.1031</v>
       </c>
+      <c r="AN30" s="41">
+        <f>AN28/AN3</f>
+        <v>0.11207512062138947</v>
+      </c>
+      <c r="AO30" s="41">
+        <f t="shared" ref="AO30:AR30" si="6">AO28/AO3</f>
+        <v>0.11523310276373337</v>
+      </c>
+      <c r="AP30" s="41">
+        <f t="shared" si="6"/>
+        <v>0.11997020854021848</v>
+      </c>
+      <c r="AQ30" s="41">
+        <f t="shared" si="6"/>
+        <v>0.11897044804575786</v>
+      </c>
+      <c r="AR30" s="41">
+        <f t="shared" si="6"/>
+        <v>0.12216043755697356</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7218,8 +7932,23 @@
       <c r="AM31" s="12">
         <v>6.46</v>
       </c>
+      <c r="AN31" s="42">
+        <v>7.53</v>
+      </c>
+      <c r="AO31" s="42">
+        <v>8.1</v>
+      </c>
+      <c r="AP31" s="42">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="AQ31" s="42">
+        <v>9.07</v>
+      </c>
+      <c r="AR31" s="42">
+        <v>9.73</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7578,7 +8307,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7586,147 +8315,147 @@
         <v>-4.1852441482693875E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AM35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AM35" si="7">(D34-C34)/C34</f>
         <v>-8.4615209243203322E-3</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.2308717547928131E-3</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6646181383712735E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4373067892313625E-3</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0643512667304128E-3</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4464068280027541E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-8.6960443780274739E-3</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.8130591751706602E-3</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.3594109138591551E-4</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0346816542288558E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.3630686791881692E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.2484076433121019E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5141540487162607E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.4037433155080214E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22508474576271187</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.9612617598229102E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.7948574622694244E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.7504312823461762E-3</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.3626760555234239E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.1440563522455786E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.7918716825217198E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.2444208246211664E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5605493133583021E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.3462270133164237E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0532837670384139E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.3775829680651221E-2</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.5238095238095247E-3</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.1153846153846155E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.75049115913556E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.2222222222222223E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.6418732782369149E-3</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.0403337969401955E-3</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.2631578947368421E-2</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0660980810234541E-2</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.1551724137931034E-3</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.4398848092152627E-3</v>
       </c>
     </row>
@@ -7735,118 +8464,118 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -7854,118 +8583,118 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -7973,34 +8702,34 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L38" s="1">
         <v>382000000</v>
@@ -8092,34 +8821,34 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1">
         <v>1116000000</v>
@@ -8211,34 +8940,34 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L40" s="1">
         <v>1498000000</v>
@@ -8330,34 +9059,34 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L41" s="1">
         <v>2407000000</v>
@@ -8449,34 +9178,34 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1">
         <v>1051000000</v>
@@ -8568,34 +9297,34 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L43" s="1">
         <v>590000000</v>
@@ -8687,34 +9416,34 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L44" s="10">
         <v>5546000000</v>
@@ -8806,34 +9535,34 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L45" s="1">
         <v>9870000000</v>
@@ -8925,34 +9654,34 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1">
         <v>2761000000</v>
@@ -8979,7 +9708,7 @@
         <v>4418000000</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1">
         <v>4842000000</v>
@@ -9044,34 +9773,34 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1">
         <v>4823000000</v>
@@ -9163,34 +9892,34 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1">
         <v>7584000000</v>
@@ -9282,34 +10011,34 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1">
         <v>1635000000</v>
@@ -9336,7 +10065,7 @@
         <v>2611000000</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1">
         <v>3284000000</v>
@@ -9401,34 +10130,34 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1">
         <v>1885000000</v>
@@ -9455,13 +10184,13 @@
         <v>1718000000</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1">
         <v>1216000000</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1">
         <v>528000000</v>
@@ -9479,7 +10208,7 @@
         <v>4057000000</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1">
         <v>5063000000</v>
@@ -9494,7 +10223,7 @@
         <v>4959000000</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" s="1">
         <v>3242000000</v>
@@ -9520,34 +10249,34 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L51" s="1">
         <v>-1088000000</v>
@@ -9639,34 +10368,34 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L52" s="1">
         <v>19886000000</v>
@@ -9758,118 +10487,118 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9877,34 +10606,34 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L54" s="11">
         <v>25432000000</v>
@@ -9996,34 +10725,34 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L55" s="1">
         <v>1556000000</v>
@@ -10107,7 +10836,7 @@
         <v>9834000000</v>
       </c>
       <c r="AM55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10115,88 +10844,88 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1">
         <v>591000000</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1">
         <v>2889000000</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB56" s="1">
         <v>6205000000</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD56" s="1">
         <v>3082000000</v>
@@ -10234,67 +10963,67 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1">
         <v>492000000</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1">
         <v>99000000</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1">
         <v>90000000</v>
@@ -10312,40 +11041,40 @@
         <v>71000000</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="1">
         <v>371000000</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10353,67 +11082,67 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1">
         <v>1718000000</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1">
         <v>1216000000</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1">
         <v>528000000</v>
@@ -10431,7 +11160,7 @@
         <v>4057000000</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC58" s="1">
         <v>5063000000</v>
@@ -10446,7 +11175,7 @@
         <v>4959000000</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH58" s="1">
         <v>3242000000</v>
@@ -10458,13 +11187,13 @@
         <v>4359000000</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10472,34 +11201,34 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L59" s="1">
         <v>3674000000</v>
@@ -10591,34 +11320,34 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L60" s="10">
         <v>5230000000</v>
@@ -10710,34 +11439,34 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1">
         <v>8509000000</v>
@@ -10829,118 +11558,118 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10948,79 +11677,79 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1">
         <v>1261000000</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1">
         <v>1434000000</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA63" s="1">
         <v>4057000000</v>
@@ -11067,34 +11796,34 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L64" s="1">
         <v>4380000000</v>
@@ -11186,34 +11915,34 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L65" s="1">
         <v>12889000000</v>
@@ -11305,118 +12034,118 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11424,34 +12153,34 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L67" s="10">
         <v>18119000000</v>
@@ -11543,34 +12272,34 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1">
         <v>29000000</v>
@@ -11662,34 +12391,34 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L69" s="1">
         <v>8730000000</v>
@@ -11781,34 +12510,34 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L70" s="1">
         <v>-1616000000</v>
@@ -11900,34 +12629,34 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L71" s="1">
         <v>170000000</v>
@@ -12011,7 +12740,7 @@
         <v>-34247000000</v>
       </c>
       <c r="AM71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12019,34 +12748,34 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L72" s="10">
         <v>7313000000</v>
@@ -12138,34 +12867,34 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L73" s="11">
         <v>25432000000</v>
@@ -12257,118 +12986,118 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -12376,118 +13105,118 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12495,16 +13224,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1">
         <v>901400000</v>
@@ -12614,16 +13343,16 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1">
         <v>772000000</v>
@@ -12733,16 +13462,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>71200000</v>
@@ -12844,7 +13573,7 @@
         <v>488000000</v>
       </c>
       <c r="AM78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12852,73 +13581,73 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1">
         <v>238000000</v>
@@ -12968,158 +13697,158 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.5027629418972976E-3</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.2507401924500371E-3</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.169611673985961E-3</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.9019607843137254E-3</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.2447932571917178E-3</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5622223895204397E-3</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.453908792345875E-3</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.6783811215427556E-3</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5223650058121949E-3</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5966155057064152E-3</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.9591098189016563E-3</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.5288336981283779E-3</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.7514920707099413E-3</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.7874021692629036E-3</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.9702750254653205E-3</v>
       </c>
     </row>
@@ -13128,16 +13857,16 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1">
         <v>12900000</v>
@@ -13247,79 +13976,79 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA82" s="1">
         <v>-268000000</v>
@@ -13328,54 +14057,54 @@
         <v>-666000000</v>
       </c>
       <c r="AC82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1">
         <v>-50100000</v>
@@ -13479,92 +14208,88 @@
       <c r="AM83" s="1">
         <v>-1142000000</v>
       </c>
-      <c r="AT83" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU83" s="63"/>
     </row>
-    <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1">
         <v>-133000000</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB84" s="1">
         <v>520000000</v>
@@ -13602,50 +14327,50 @@
       <c r="AM84" s="1">
         <v>1842000000</v>
       </c>
-      <c r="AT84" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU84" s="65"/>
+      <c r="AT84" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU84" s="72"/>
     </row>
-    <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1">
         <v>316000000</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1">
         <v>1994000000</v>
@@ -13723,31 +14448,28 @@
         <v>-4437000000</v>
       </c>
       <c r="AM85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT85" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU85" s="24">
-        <f>AM17</f>
-        <v>939000000</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AT85" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU85" s="74"/>
     </row>
     <row r="86" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1">
         <v>128400000</v>
@@ -13849,14 +14571,14 @@
         <v>-724000000</v>
       </c>
       <c r="AM86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT86" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU86" s="24">
-        <f>AM56</f>
-        <v>3414000000</v>
+        <v>91</v>
+      </c>
+      <c r="AT86" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU86" s="53">
+        <f>AM17</f>
+        <v>939000000</v>
       </c>
     </row>
     <row r="87" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -13864,16 +14586,16 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10">
         <v>1885900000</v>
@@ -13977,12 +14699,12 @@
       <c r="AM87" s="10">
         <v>10811000000</v>
       </c>
-      <c r="AT87" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU87" s="24">
-        <f>AM61</f>
-        <v>35657000000</v>
+      <c r="AT87" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU87" s="53">
+        <f>AM56</f>
+        <v>3414000000</v>
       </c>
     </row>
     <row r="88" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -13990,16 +14712,16 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1">
         <v>-943800000</v>
@@ -14059,220 +14781,220 @@
         <v>-2430000000</v>
       </c>
       <c r="Y88" s="1">
-        <v>0</v>
+        <v>-2348000000</v>
       </c>
       <c r="Z88" s="1">
-        <v>0</v>
+        <v>-2070000000</v>
       </c>
       <c r="AA88" s="1">
-        <v>0</v>
+        <v>-3189000000</v>
       </c>
       <c r="AB88" s="1">
-        <v>0</v>
+        <v>-3271000000</v>
       </c>
       <c r="AC88" s="1">
-        <v>0</v>
+        <v>-2607000000</v>
       </c>
       <c r="AD88" s="1">
-        <v>0</v>
+        <v>-2707000000</v>
       </c>
       <c r="AE88" s="1">
-        <v>0</v>
+        <v>-2754000000</v>
       </c>
       <c r="AF88" s="1">
-        <v>0</v>
+        <v>-2677000000</v>
       </c>
       <c r="AG88" s="1">
-        <v>0</v>
+        <v>-2932000000</v>
       </c>
       <c r="AH88" s="1">
-        <v>0</v>
+        <v>-2760000000</v>
       </c>
       <c r="AI88" s="1">
-        <v>0</v>
+        <v>-3146000000</v>
       </c>
       <c r="AJ88" s="1">
-        <v>0</v>
+        <v>-4070000000</v>
       </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>-4143000000</v>
       </c>
       <c r="AL88" s="1">
-        <v>0</v>
+        <v>-4454000000</v>
       </c>
       <c r="AM88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT88" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU88" s="33">
-        <f>AU85/(AU86+AU87)</f>
-        <v>2.4033170382124849E-2</v>
+        <v>-883000000</v>
+      </c>
+      <c r="AT88" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU88" s="53">
+        <f>AM61</f>
+        <v>35657000000</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AM89" si="9">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="E89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.191938277436624E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.6287697933459525E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.434758439200527E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0532544378698228E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.9198423705172119E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.913628636855341E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.916274941652148E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.2270500869015639E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.1998852607926572E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26588509038840163</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.6005302695536903E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.2206673842841764E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.9155374048635604E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.7223638101306151E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.9868377145823289E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.7400977410204707E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.331367852097537E-2</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.8855337678230923E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.1559507523939808E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>5.428776213266745E-2</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>4.7881199111769059E-2</v>
       </c>
       <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>5.5136761298800095E-2</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>4.9185011427884034E-2</v>
       </c>
       <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>3.9806388566542478E-2</v>
       </c>
       <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>4.0758864714296468E-2</v>
       </c>
       <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>4.129988152902539E-2</v>
       </c>
       <c r="AF89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>4.2454326313118497E-2</v>
       </c>
       <c r="AG89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>4.6688641538878008E-2</v>
       </c>
       <c r="AH89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>4.3447461629279809E-2</v>
       </c>
       <c r="AI89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>4.8653748008846136E-2</v>
       </c>
       <c r="AJ89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>6.0600646208364972E-2</v>
       </c>
       <c r="AK89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>5.8872847155118514E-2</v>
       </c>
       <c r="AL89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>5.6043485919923496E-2</v>
       </c>
       <c r="AM89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU89" s="24">
-        <f>AM27</f>
-        <v>1727000000</v>
+        <f t="shared" si="9"/>
+        <v>1.0220853782757663E-2</v>
+      </c>
+      <c r="AT89" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU89" s="54">
+        <f>AU86/(AU87+AU88)</f>
+        <v>2.4033170382124849E-2</v>
       </c>
     </row>
     <row r="90" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14280,49 +15002,49 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1">
         <v>-98000000</v>
@@ -14334,10 +15056,10 @@
         <v>-351000000</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1">
         <v>-1095000000</v>
@@ -14393,12 +15115,12 @@
       <c r="AM90" s="1">
         <v>-824000000</v>
       </c>
-      <c r="AT90" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU90" s="24">
-        <f>AM25</f>
-        <v>10705000000</v>
+      <c r="AT90" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU90" s="53">
+        <f>AM27</f>
+        <v>1727000000</v>
       </c>
     </row>
     <row r="91" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14406,16 +15128,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-2131100000</v>
@@ -14484,13 +15206,13 @@
         <v>-704000000</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE91" s="1">
         <v>-6305000000</v>
@@ -14508,7 +15230,7 @@
         <v>-5637000000</v>
       </c>
       <c r="AJ91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK91" s="1">
         <v>-1135000000</v>
@@ -14519,12 +15241,12 @@
       <c r="AM91" s="1">
         <v>-873000000</v>
       </c>
-      <c r="AT91" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU91" s="33">
-        <f>AU89/AU90</f>
-        <v>0.16132648295189164</v>
+      <c r="AT91" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU91" s="53">
+        <f>AM25</f>
+        <v>10705000000</v>
       </c>
     </row>
     <row r="92" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14532,16 +15254,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>2143400000</v>
@@ -14645,29 +15367,29 @@
       <c r="AM92" s="1">
         <v>150000000</v>
       </c>
-      <c r="AT92" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU92" s="35">
-        <f>AU88*(1-AU91)</f>
-        <v>2.0155983530193076E-2</v>
+      <c r="AT92" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU92" s="54">
+        <f>AU90/AU91</f>
+        <v>0.16132648295189164</v>
       </c>
     </row>
-    <row r="93" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>-3324800000</v>
@@ -14771,26 +15493,29 @@
       <c r="AM93" s="1">
         <v>-883000000</v>
       </c>
-      <c r="AT93" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU93" s="65"/>
+      <c r="AT93" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU93" s="54">
+        <f>AU89*(1-AU92)</f>
+        <v>2.0155983530193076E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10">
         <v>-4256300000</v>
@@ -14894,85 +15619,83 @@
       <c r="AM94" s="10">
         <v>-2430000000</v>
       </c>
-      <c r="AT94" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU94" s="36">
-        <v>4.095E-2</v>
-      </c>
+      <c r="AT94" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU94" s="74"/>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1">
         <v>-918000000</v>
@@ -15016,15 +15739,15 @@
       <c r="AL95" s="1">
         <v>-8696000000</v>
       </c>
-      <c r="AM95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT95" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU95" s="58" cm="1">
-        <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.54979999999999996</v>
+      <c r="AM95" s="1">
+        <v>-6156000000</v>
+      </c>
+      <c r="AT95" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU95" s="55">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.8019999999999993E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15032,25 +15755,25 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1">
         <v>82800000</v>
@@ -15101,55 +15824,56 @@
         <v>1108000000</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT96" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU96" s="36">
-        <v>8.4000000000000005E-2</v>
+        <v>91</v>
+      </c>
+      <c r="AT96" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU96" s="56" cm="1">
+        <f t="array" ref="AU96">_FV(A1,"Beta")</f>
+        <v>0.57640000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15157,22 +15881,22 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1">
         <v>-195200000</v>
@@ -15267,32 +15991,31 @@
       <c r="AL97" s="1">
         <v>-106000000</v>
       </c>
-      <c r="AM97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT97" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU97" s="35">
-        <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>6.4618889999999998E-2</v>
+      <c r="AM97" s="1">
+        <v>-1500000000</v>
+      </c>
+      <c r="AT97" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU97" s="57">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-241900000</v>
@@ -15393,29 +16116,32 @@
       <c r="AL98" s="1">
         <v>-5815000000</v>
       </c>
-      <c r="AM98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT98" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU98" s="65"/>
+      <c r="AM98" s="1">
+        <v>-6172000000</v>
+      </c>
+      <c r="AT98" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU98" s="54">
+        <f>(AU95)+((AU96)*(AU97-AU95))</f>
+        <v>6.8758871999999999E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1">
         <v>2562900000</v>
@@ -15517,31 +16243,28 @@
         <v>3837000000</v>
       </c>
       <c r="AM99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT99" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU99" s="24">
-        <f>AU86+AU87</f>
-        <v>39071000000</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AT99" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU99" s="74"/>
     </row>
     <row r="100" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10">
         <v>2321000000</v>
@@ -15642,15 +16365,15 @@
       <c r="AL100" s="10">
         <v>-10780000000</v>
       </c>
-      <c r="AM100" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT100" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU100" s="33">
-        <f>AU99/AU103</f>
-        <v>0.13209019430634322</v>
+      <c r="AM100" s="10">
+        <v>-8523000000</v>
+      </c>
+      <c r="AT100" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU100" s="53">
+        <f>AU87+AU88</f>
+        <v>39071000000</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15658,16 +16381,16 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1">
         <v>-17100000</v>
@@ -15703,10 +16426,10 @@
         <v>2000000</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S101" s="1">
         <v>34000000</v>
@@ -15768,15 +16491,15 @@
       <c r="AL101" s="1">
         <v>-114000000</v>
       </c>
-      <c r="AM101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT101" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU101" s="38" cm="1">
-        <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>256719313620</v>
+      <c r="AM101" s="1">
+        <v>-465000000</v>
+      </c>
+      <c r="AT101" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU101" s="54">
+        <f>AU100/AU104</f>
+        <v>0.14386060302560294</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15784,16 +16507,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10">
         <v>2321000000</v>
@@ -15894,15 +16617,15 @@
       <c r="AL102" s="10">
         <v>-2547000000</v>
       </c>
-      <c r="AM102" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT102" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU102" s="33">
-        <f>AU101/AU103</f>
-        <v>0.86790980569365683</v>
+      <c r="AM102" s="10">
+        <v>-142000000</v>
+      </c>
+      <c r="AT102" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU102" s="58" cm="1">
+        <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
+        <v>232518296710</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15910,16 +16633,16 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1">
         <v>142700000</v>
@@ -16023,59 +16746,59 @@
       <c r="AM103" s="1">
         <v>5707000000</v>
       </c>
-      <c r="AT103" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU103" s="39">
-        <f>AU99+AU101</f>
-        <v>295790313620</v>
+      <c r="AT103" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU103" s="54">
+        <f>AU102/AU104</f>
+        <v>0.85613939697439712</v>
       </c>
     </row>
-    <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P104" s="11">
         <v>964000000</v>
@@ -16147,514 +16870,680 @@
         <v>5707000000</v>
       </c>
       <c r="AM104" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT104" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU104" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="AN104" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO104" s="73"/>
+      <c r="AP104" s="73"/>
+      <c r="AQ104" s="73"/>
+      <c r="AR104" s="73"/>
+      <c r="AS104" s="45"/>
+      <c r="AT104" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU104" s="59">
+        <f>AU100+AU102</f>
+        <v>271589296710</v>
+      </c>
     </row>
-    <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>157</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" ref="C105:AM105" si="10">(C22*(1-$AU$92))+C77+C88-C81</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>1310571013.5450726</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>1559270443.7178888</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>1566351172.349369</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>1945565931.8075666</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>2226004577.3003268</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>1976761662.7744045</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>2552117795.4226995</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>2077652405.4180288</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>1879764222.3260159</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>-1901329659.0378327</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>1803895749.6496964</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>2079722092.4801493</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>3046306212.0504436</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>3328925735.6375523</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>3960698085.0070057</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>4600584026.156002</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>4201624567.9588976</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>5363218776.2727699</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>5006289117.2349367</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>5802200840.728631</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>6328289771.1349831</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>5494827744.044838</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>8388941989.7244263</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="10"/>
+        <v>7289993087.3423634</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="10"/>
+        <v>7137326482.9518909</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="10"/>
+        <v>6747330966.837925</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="10"/>
+        <v>5752439887.9028492</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="10"/>
+        <v>6730420364.3157387</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="10"/>
+        <v>8909619990.6585712</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="10"/>
+        <v>6934989257.3563766</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="10"/>
+        <v>7471789163.9420834</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="10"/>
+        <v>7161829051.8449326</v>
+      </c>
+      <c r="AL105" s="1">
+        <f t="shared" si="10"/>
+        <v>7404273797.2909851</v>
+      </c>
+      <c r="AM105" s="1">
+        <f t="shared" si="10"/>
+        <v>13841809528.257824</v>
+      </c>
+      <c r="AN105" s="46">
+        <f>AM105*(1+$AU$107)</f>
+        <v>14519841520.841356</v>
+      </c>
+      <c r="AO105" s="46">
+        <f>AN105*(1+$AU$107)</f>
+        <v>15231086467.412464</v>
+      </c>
+      <c r="AP105" s="46">
+        <f>AO105*(1+$AU$107)</f>
+        <v>15977171282.813877</v>
+      </c>
+      <c r="AQ105" s="46">
+        <f>AP105*(1+$AU$107)</f>
+        <v>16759802575.248528</v>
+      </c>
+      <c r="AR105" s="46">
+        <f>AQ105*(1+$AU$107)</f>
+        <v>17580770550.006714</v>
+      </c>
+      <c r="AS105" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT105" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU105" s="74"/>
+    </row>
+    <row r="106" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AM106" si="11">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="11"/>
         <v>-1.2949793015603395E-2</v>
       </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AM105" si="8">(H106/G106)-1</f>
+      <c r="H106" s="15">
+        <f t="shared" si="11"/>
         <v>4.5811377567480438E-2</v>
       </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
+      <c r="I106" s="15">
+        <f t="shared" si="11"/>
         <v>0.19485861182519271</v>
       </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
+      <c r="J106" s="15">
+        <f t="shared" si="11"/>
         <v>-7.9173838209982694E-3</v>
       </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
+      <c r="K106" s="15">
+        <f t="shared" si="11"/>
         <v>0.26891047883414299</v>
       </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
+      <c r="L106" s="15">
+        <f t="shared" si="11"/>
         <v>0.11977030352748153</v>
       </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
+      <c r="M106" s="15">
+        <f t="shared" si="11"/>
         <v>0.16422466422466431</v>
       </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
+      <c r="N106" s="15">
+        <f t="shared" si="11"/>
         <v>3.2732039853172523</v>
       </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
+      <c r="O106" s="15">
+        <f t="shared" si="11"/>
         <v>-1.3351331451711865</v>
       </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
+      <c r="P106" s="15">
+        <f t="shared" si="11"/>
         <v>-1.5415598681801539</v>
       </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
+      <c r="Q106" s="15">
+        <f t="shared" si="11"/>
         <v>0.92292089249492903</v>
       </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
+      <c r="R106" s="15">
+        <f t="shared" si="11"/>
         <v>1.1603375527426074E-2</v>
       </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
+      <c r="S106" s="15">
+        <f t="shared" si="11"/>
         <v>0.10879388251651023</v>
       </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
+      <c r="T106" s="15">
+        <f t="shared" si="11"/>
         <v>-6.4890282131661481E-2</v>
       </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
+      <c r="U106" s="15">
+        <f t="shared" si="11"/>
         <v>0.22929936305732479</v>
       </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
+      <c r="V106" s="15">
+        <f t="shared" si="11"/>
         <v>0.12244341423506944</v>
       </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
+      <c r="W106" s="15">
+        <f t="shared" si="11"/>
         <v>-2.4295432458697808E-2</v>
       </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
+      <c r="X106" s="15">
+        <f t="shared" si="11"/>
         <v>0.12151394422310746</v>
       </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
+      <c r="Y106" s="15">
+        <f t="shared" si="11"/>
         <v>1.0879218472468866E-2</v>
       </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
+      <c r="Z106" s="15">
+        <f t="shared" si="11"/>
         <v>2.5258071601142129E-2</v>
       </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AA106" s="15">
+        <f t="shared" si="11"/>
         <v>0.11289631533847477</v>
       </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AB106" s="15">
+        <f t="shared" si="11"/>
         <v>7.8922040423484052E-2</v>
       </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AC106" s="15">
+        <f t="shared" si="11"/>
         <v>2.8545941123996332E-2</v>
       </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AD106" s="15">
+        <f t="shared" si="11"/>
         <v>0.19566348655680832</v>
       </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AE106" s="15">
+        <f t="shared" si="11"/>
         <v>0.10938633396199049</v>
       </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AF106" s="15">
+        <f t="shared" si="11"/>
         <v>2.2884791421472483E-2</v>
       </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AG106" s="15">
+        <f t="shared" si="11"/>
         <v>-5.8552799795448696E-2</v>
       </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AH106" s="15">
+        <f t="shared" si="11"/>
         <v>-4.6034763715372073E-2</v>
       </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AI106" s="15">
+        <f t="shared" si="11"/>
         <v>-0.12697508896797149</v>
       </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AJ106" s="15">
+        <f t="shared" si="11"/>
         <v>-0.11674547529757051</v>
       </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AK106" s="15">
+        <f t="shared" si="11"/>
         <v>0.17648144729555115</v>
       </c>
-      <c r="AL105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AL106" s="15">
+        <f t="shared" si="11"/>
         <v>9.6971598932998671E-2</v>
       </c>
-      <c r="AM105" s="15">
-        <f t="shared" si="8"/>
+      <c r="AM106" s="15">
+        <f t="shared" si="11"/>
         <v>0.54641682162780714</v>
       </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="15"/>
-      <c r="AT105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU105" s="26">
-        <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>5.8745776044978444E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1">
-        <v>942100000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>929900000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>972500000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>1162000000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>1152800000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>1462800000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>1638000000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>1907000000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>8149000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>-2731000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>1479000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>2844000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>2877000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>3190000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>2983000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>3667000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>4116000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>4016000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>4504000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>4553000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>4668000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>5195000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>5605000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>5765000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>6893000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>7647000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>7822000000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>7364000000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>7025000000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>6133000000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>5417000000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>6373000000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>6991000000</v>
-      </c>
-      <c r="AM106" s="1">
-        <v>10811000000</v>
-      </c>
-      <c r="AN106" s="40">
-        <f>AM106*(1+$AU$106)</f>
-        <v>11256623990.667992</v>
-      </c>
-      <c r="AO106" s="40">
-        <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
-        <v>11720616378.436979</v>
-      </c>
-      <c r="AP106" s="40">
-        <f t="shared" si="9"/>
-        <v>12203734299.410774</v>
-      </c>
-      <c r="AQ106" s="40">
-        <f t="shared" si="9"/>
-        <v>12706766098.463154</v>
-      </c>
-      <c r="AR106" s="40">
-        <f t="shared" si="9"/>
-        <v>13230532615.647678</v>
-      </c>
-      <c r="AS106" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT106" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU106" s="43">
-        <f>(SUM(AN4:AR4)/5)</f>
-        <v>4.1219497795577806E-2</v>
+      <c r="AN106" s="48">
+        <f>(AN107/AM105)-1</f>
+        <v>-0.33830905696960689</v>
+      </c>
+      <c r="AO106" s="48">
+        <f>(AO107/AN107)-1</f>
+        <v>0.10699858063107337</v>
+      </c>
+      <c r="AP106" s="48">
+        <f>(AP107/AO107)-1</f>
+        <v>7.1308807574711475E-2</v>
+      </c>
+      <c r="AQ106" s="48">
+        <f>(AQ107/AP107)-1</f>
+        <v>0.15264223899834284</v>
+      </c>
+      <c r="AR106" s="48">
+        <f>(AR107/AQ107)-1</f>
+        <v>7.1086261980830567E-2</v>
+      </c>
+      <c r="AS106" s="49">
+        <f>SUM(AN106:AR106)/5</f>
+        <v>1.2745366443070272E-2</v>
+      </c>
+      <c r="AT106" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU106" s="60">
+        <f>(AU101*AU93)+(AU103*AU98)</f>
+        <v>6.1766831155947458E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
-      <c r="AN107" s="41"/>
-      <c r="AO107" s="41"/>
-      <c r="AP107" s="41"/>
-      <c r="AQ107" s="41"/>
-      <c r="AR107" s="44">
-        <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>401866471020.35944</v>
-      </c>
-      <c r="AS107" s="45" t="s">
+      <c r="A107" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1">
+        <v>942100000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>929900000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>972500000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1162000000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1152800000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1462800000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1638000000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1907000000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>8149000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>-2731000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>1479000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>2844000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>2877000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>3190000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>2983000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>3667000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>4116000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>4016000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>4504000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>4553000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>4668000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>5195000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>5605000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>5765000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>6893000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>7647000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>7822000000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>7364000000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>7025000000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>6133000000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>5417000000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>6373000000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>6991000000</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>10811000000</v>
+      </c>
+      <c r="AN107" s="50">
+        <v>9159000000</v>
+      </c>
+      <c r="AO107" s="50">
+        <v>10139000000</v>
+      </c>
+      <c r="AP107" s="50">
+        <v>10862000000</v>
+      </c>
+      <c r="AQ107" s="50">
+        <v>12520000000</v>
+      </c>
+      <c r="AR107" s="50">
+        <v>13410000000</v>
+      </c>
+      <c r="AS107" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT107" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU107" s="32">
+        <f>(SUM(AN4:AR4)/5)</f>
+        <v>4.8984346389057042E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.2">
+      <c r="AN108" s="47"/>
+      <c r="AO108" s="47"/>
+      <c r="AP108" s="47"/>
+      <c r="AQ108" s="47"/>
+      <c r="AR108" s="51">
+        <f>AR107*(1+AU108)/(AU109-AU108)</f>
+        <v>327489532278.10944</v>
+      </c>
+      <c r="AS108" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT108" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU108" s="33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.2">
+      <c r="AN109" s="51">
+        <f t="shared" ref="AN109:AP109" si="12">AN108+AN107</f>
+        <v>9159000000</v>
+      </c>
+      <c r="AO109" s="51">
+        <f t="shared" si="12"/>
+        <v>10139000000</v>
+      </c>
+      <c r="AP109" s="51">
+        <f t="shared" si="12"/>
+        <v>10862000000</v>
+      </c>
+      <c r="AQ109" s="51">
+        <f>AQ108+AQ107</f>
+        <v>12520000000</v>
+      </c>
+      <c r="AR109" s="51">
+        <f>AR108+AR107</f>
+        <v>340899532278.10944</v>
+      </c>
+      <c r="AS109" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT109" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU109" s="32">
+        <f>AU106</f>
+        <v>6.1766831155947458E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.2">
+      <c r="AN110" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="AT107" s="46" t="s">
+      <c r="AO110" s="70"/>
+    </row>
+    <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN111" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AU107" s="47">
-        <v>2.5000000000000001E-2</v>
+      <c r="AO111" s="58">
+        <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
+        <v>289173020890.35693</v>
       </c>
     </row>
-    <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="44">
-        <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
-        <v>11256623990.667992</v>
-      </c>
-      <c r="AO108" s="44">
-        <f t="shared" si="10"/>
-        <v>11720616378.436979</v>
-      </c>
-      <c r="AP108" s="44">
-        <f t="shared" si="10"/>
-        <v>12203734299.410774</v>
-      </c>
-      <c r="AQ108" s="44">
-        <f>AQ107+AQ106</f>
-        <v>12706766098.463154</v>
-      </c>
-      <c r="AR108" s="44">
-        <f>AR107+AR106</f>
-        <v>415097003636.00714</v>
-      </c>
-      <c r="AS108" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT108" s="48" t="s">
+    <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN112" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="AU108" s="49">
-        <f>AU105</f>
-        <v>5.8745776044978444E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO109" s="61"/>
-    </row>
-    <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO110" s="38">
-        <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>353510007837.39075</v>
-      </c>
-    </row>
-    <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO111" s="38">
+      <c r="AO112" s="58">
         <f>AM40</f>
         <v>5348000000</v>
       </c>
     </row>
-    <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO112" s="38">
-        <f>AU99</f>
+    <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN113" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO113" s="58">
+        <f>AU100</f>
         <v>39071000000</v>
       </c>
     </row>
-    <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO113" s="38">
-        <f>AO110+AO111-AO112</f>
-        <v>319787007837.39075</v>
+    <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN114" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO114" s="58">
+        <f>AO111+AO112-AO113</f>
+        <v>255450020890.35693</v>
       </c>
     </row>
-    <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO114" s="51">
+    <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN115" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO115" s="64">
         <f>AM34*(1+(5*AS16))</f>
         <v>1337167932.2715361</v>
       </c>
     </row>
-    <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="52" t="s">
+    <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN116" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO116" s="66">
+        <f>AO114/AO115</f>
+        <v>191.03809979678991</v>
+      </c>
+    </row>
+    <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN117" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO117" s="67" cm="1">
+        <f t="array" ref="AO117">_FV(A1,"Price")</f>
+        <v>168.91</v>
+      </c>
+    </row>
+    <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN118" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO118" s="68">
+        <f>AO116/AO117-1</f>
+        <v>0.13100526787514011</v>
+      </c>
+    </row>
+    <row r="119" spans="40:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN119" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="AO115" s="53">
-        <f>AO113/AO114</f>
-        <v>239.15246553523556</v>
-      </c>
-    </row>
-    <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO116" s="59" cm="1">
-        <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>186.34</v>
-      </c>
-    </row>
-    <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO117" s="55">
-        <f>AO115/AO116-1</f>
-        <v>0.28341990734804967</v>
-      </c>
-    </row>
-    <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO118" s="56" t="str">
-        <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
+      <c r="AO119" s="69" t="str">
+        <f>IF(AO116&gt;AO117,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AN109:AO109"/>
-    <mergeCell ref="AT83:AU83"/>
+  <mergeCells count="7">
+    <mergeCell ref="AN110:AO110"/>
     <mergeCell ref="AT84:AU84"/>
-    <mergeCell ref="AT93:AU93"/>
-    <mergeCell ref="AT98:AU98"/>
-    <mergeCell ref="AT104:AU104"/>
+    <mergeCell ref="AN104:AR104"/>
+    <mergeCell ref="AT105:AU105"/>
+    <mergeCell ref="AT99:AU99"/>
+    <mergeCell ref="AT94:AU94"/>
+    <mergeCell ref="AT85:AU85"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/PEP" display="ROIC.AI | PEP" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -16735,8 +17624,9 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/77476/000007747623000007/0000077476-23-000007-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/77476/000007747623000007/0000077476-23-000007-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NASDAQGS:PEP/explorer/revenue_proj" xr:uid="{EA6E26C8-8087-3A41-B5A6-88F3D056BEE4}"/>
+    <hyperlink ref="AS107" r:id="rId79" xr:uid="{C93EC589-5F92-354A-BB79-A049AB20174D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
--- a/Consumer/PepsiCo.xlsx
+++ b/Consumer/PepsiCo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9883D473-C9C9-FF4E-BF0A-52C31F01E77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCBED52-2E16-F14A-98F4-EDCA2EF5FFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -578,9 +578,6 @@
   <si>
     <t>5Y Fwd Income CAGR</t>
   </si>
-  <si>
-    <t>Unlevered FCF Projection</t>
-  </si>
 </sst>
 </file>
 
@@ -988,9 +985,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1069,11 +1063,14 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2914,43 +2911,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Full Portfolio"/>
-      <sheetName val="Fidelity Growth"/>
-      <sheetName val="IRA"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Growth Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Retirement"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
-      <sheetName val="Best Mature"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="Hedge Fund Portfolio"/>
-      <sheetName val="Scored Portfolio"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
       <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>4.8019999999999993E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9880000000000008E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2961,11 +2953,6 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3092,10 +3079,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>196.88</v>
-    <v>160.97999999999999</v>
-    <v>0.57640000000000002</v>
-    <v>1.21</v>
-    <v>7.2150000000000001E-3</v>
+    <v>155.83000000000001</v>
+    <v>0.57940000000000003</v>
+    <v>-0.56000000000000005</v>
+    <v>-3.4879999999999998E-3</v>
+    <v>0.25</v>
+    <v>1.5629999999999999E-3</v>
     <v>USD</v>
     <v>PepsiCo, Inc. is a beverage and convenient food company. The Company's segments include Frito-Lay North America, which includes its food businesses in the United States and Canada; Quaker Foods North America, which includes its food businesses, such as cereal, rice, pasta and other branded food, in the United States and Canada; PepsiCo Beverages North America, which includes its beverage businesses in the United States and Canada; Latin America, which includes its beverage and convenient food businesses in Latin America; Europe, which includes its beverage and convenient food businesses in Europe; Africa, Middle East and South Asia (AMESA), which includes all of its beverage and convenient food businesses in Africa, the Middle East and South Asia; and Asia Pacific, Australia and New Zealand and China Region (APAC), which includes all of its beverage and convenient food businesses in Asia Pacific, Australia and New Zealand, and China region. Its brands include Lays, Doritos and Cheetos.</v>
     <v>315000</v>
@@ -3103,24 +3092,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 ANDERSON HILL RD, PURCHASE, NY, 10577 US</v>
-    <v>169.13</v>
+    <v>162.22999999999999</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45203.993307117969</v>
+    <v>45219.998118935153</v>
     <v>0</v>
-    <v>167.06</v>
-    <v>232518296710</v>
+    <v>159.71</v>
+    <v>219978240000</v>
     <v>PEPSICO, INC.</v>
     <v>PEPSICO, INC.</v>
-    <v>168.45</v>
-    <v>29.246600000000001</v>
-    <v>167.7</v>
-    <v>168.91</v>
-    <v>1376581000</v>
+    <v>161.37</v>
+    <v>26.755500000000001</v>
+    <v>160.56</v>
+    <v>160</v>
+    <v>160.25</v>
+    <v>1374864000</v>
     <v>PEP</v>
     <v>PEPSICO, INC. (XNAS:PEP)</v>
-    <v>390</v>
-    <v>4705130</v>
+    <v>5486488</v>
+    <v>6374929</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -3152,6 +3142,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3172,6 +3164,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3188,7 +3181,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3199,13 +3192,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3271,13 +3267,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3322,6 +3324,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3329,6 +3334,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3690,10 +3698,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM114" sqref="AM114"/>
+      <selection pane="bottomRight" activeCell="AR101" sqref="AR101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5908,15 +5916,15 @@
       </c>
       <c r="AT16" s="34">
         <f>AU102/AM3</f>
-        <v>2.6914331964765257</v>
+        <v>2.5462802111306604</v>
       </c>
       <c r="AU16" s="34">
         <f>AU102/AM28</f>
-        <v>26.09632959708193</v>
+        <v>24.688915824915824</v>
       </c>
       <c r="AV16" s="35">
         <f>AU102/AM107</f>
-        <v>21.507566063268893</v>
+        <v>20.347631116455464</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6308,15 +6316,15 @@
       </c>
       <c r="AT19" s="34">
         <f>AU102/AN3</f>
-        <v>2.5153973118198145</v>
+        <v>2.3797382029035679</v>
       </c>
       <c r="AU19" s="34">
         <f>AU102/AN28</f>
-        <v>22.443851033783783</v>
+        <v>21.233420849420849</v>
       </c>
       <c r="AV19" s="35">
         <f>AU102/AN107</f>
-        <v>25.386865019106889</v>
+        <v>24.017713724205699</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6765,11 +6773,11 @@
       </c>
       <c r="AU22" s="36">
         <f>AM98/AU102*-1</f>
-        <v>2.6544147653454569E-2</v>
+        <v>2.8057320578617231E-2</v>
       </c>
       <c r="AV22" s="37">
         <f>AN107/AU102</f>
-        <v>3.9390448534995202E-2</v>
+        <v>4.1635936354432149E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -14327,10 +14335,10 @@
       <c r="AM84" s="1">
         <v>1842000000</v>
       </c>
-      <c r="AT84" s="71" t="s">
+      <c r="AT84" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="AU84" s="72"/>
+      <c r="AU84" s="71"/>
     </row>
     <row r="85" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14450,10 +14458,10 @@
       <c r="AM85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT85" s="74" t="s">
+      <c r="AT85" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="AU85" s="74"/>
+      <c r="AU85" s="72"/>
     </row>
     <row r="86" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -14576,7 +14584,7 @@
       <c r="AT86" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="AU86" s="53">
+      <c r="AU86" s="52">
         <f>AM17</f>
         <v>939000000</v>
       </c>
@@ -14702,7 +14710,7 @@
       <c r="AT87" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="AU87" s="53">
+      <c r="AU87" s="52">
         <f>AM56</f>
         <v>3414000000</v>
       </c>
@@ -14828,7 +14836,7 @@
       <c r="AT88" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="AU88" s="53">
+      <c r="AU88" s="52">
         <f>AM61</f>
         <v>35657000000</v>
       </c>
@@ -14992,7 +15000,7 @@
       <c r="AT89" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="AU89" s="54">
+      <c r="AU89" s="53">
         <f>AU86/(AU87+AU88)</f>
         <v>2.4033170382124849E-2</v>
       </c>
@@ -15118,7 +15126,7 @@
       <c r="AT90" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="AU90" s="53">
+      <c r="AU90" s="52">
         <f>AM27</f>
         <v>1727000000</v>
       </c>
@@ -15244,7 +15252,7 @@
       <c r="AT91" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AU91" s="53">
+      <c r="AU91" s="52">
         <f>AM25</f>
         <v>10705000000</v>
       </c>
@@ -15370,7 +15378,7 @@
       <c r="AT92" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="AU92" s="54">
+      <c r="AU92" s="53">
         <f>AU90/AU91</f>
         <v>0.16132648295189164</v>
       </c>
@@ -15496,7 +15504,7 @@
       <c r="AT93" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="AU93" s="54">
+      <c r="AU93" s="53">
         <f>AU89*(1-AU92)</f>
         <v>2.0155983530193076E-2</v>
       </c>
@@ -15619,10 +15627,10 @@
       <c r="AM94" s="10">
         <v>-2430000000</v>
       </c>
-      <c r="AT94" s="74" t="s">
+      <c r="AT94" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="AU94" s="74"/>
+      <c r="AU94" s="72"/>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -15745,9 +15753,9 @@
       <c r="AT95" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AU95" s="55">
-        <f>[1]Treasuries!$C$8</f>
-        <v>4.8019999999999993E-2</v>
+      <c r="AU95" s="54">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15871,9 +15879,9 @@
       <c r="AT96" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="AU96" s="56" cm="1">
+      <c r="AU96" s="55" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>0.57640000000000002</v>
+        <v>0.57940000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15997,7 +16005,7 @@
       <c r="AT97" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AU97" s="57">
+      <c r="AU97" s="56">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -16122,9 +16130,9 @@
       <c r="AT98" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="AU98" s="54">
+      <c r="AU98" s="53">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>6.8758871999999999E-2</v>
+        <v>6.9649128000000005E-2</v>
       </c>
     </row>
     <row r="99" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -16245,10 +16253,10 @@
       <c r="AM99" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT99" s="74" t="s">
+      <c r="AT99" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="AU99" s="74"/>
+      <c r="AU99" s="72"/>
     </row>
     <row r="100" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -16371,7 +16379,7 @@
       <c r="AT100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AU100" s="53">
+      <c r="AU100" s="52">
         <f>AU87+AU88</f>
         <v>39071000000</v>
       </c>
@@ -16497,9 +16505,9 @@
       <c r="AT101" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="AU101" s="54">
+      <c r="AU101" s="53">
         <f>AU100/AU104</f>
-        <v>0.14386060302560294</v>
+        <v>0.15082460770778558</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16623,9 +16631,9 @@
       <c r="AT102" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="AU102" s="58" cm="1">
+      <c r="AU102" s="57" cm="1">
         <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
-        <v>232518296710</v>
+        <v>219978240000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16749,9 +16757,9 @@
       <c r="AT103" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="AU103" s="54">
+      <c r="AU103" s="53">
         <f>AU102/AU104</f>
-        <v>0.85613939697439712</v>
+        <v>0.84917539229221439</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16873,7 +16881,7 @@
         <v>91</v>
       </c>
       <c r="AN104" s="73" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="AO104" s="73"/>
       <c r="AP104" s="73"/>
@@ -16883,9 +16891,9 @@
       <c r="AT104" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="AU104" s="59">
+      <c r="AU104" s="58">
         <f>AU100+AU102</f>
-        <v>271589296710</v>
+        <v>259049240000</v>
       </c>
     </row>
     <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -17040,33 +17048,33 @@
         <f t="shared" si="10"/>
         <v>13841809528.257824</v>
       </c>
-      <c r="AN105" s="46">
-        <f>AM105*(1+$AU$107)</f>
-        <v>14519841520.841356</v>
-      </c>
-      <c r="AO105" s="46">
-        <f>AN105*(1+$AU$107)</f>
-        <v>15231086467.412464</v>
-      </c>
-      <c r="AP105" s="46">
-        <f>AO105*(1+$AU$107)</f>
-        <v>15977171282.813877</v>
-      </c>
-      <c r="AQ105" s="46">
-        <f>AP105*(1+$AU$107)</f>
-        <v>16759802575.248528</v>
-      </c>
-      <c r="AR105" s="46">
-        <f>AQ105*(1+$AU$107)</f>
-        <v>17580770550.006714</v>
-      </c>
-      <c r="AS105" s="47" t="s">
+      <c r="AN105" s="74">
+        <f>AN107/AN3</f>
+        <v>9.9082628356303687E-2</v>
+      </c>
+      <c r="AO105" s="74">
+        <f t="shared" ref="AO105:AR105" si="11">AO107/AO3</f>
+        <v>0.10483162215536049</v>
+      </c>
+      <c r="AP105" s="74">
+        <f t="shared" si="11"/>
+        <v>0.10786494538232373</v>
+      </c>
+      <c r="AQ105" s="74">
+        <f t="shared" si="11"/>
+        <v>0.11935176358436607</v>
+      </c>
+      <c r="AR105" s="74">
+        <f t="shared" si="11"/>
+        <v>0.12224247948951686</v>
+      </c>
+      <c r="AS105" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="AT105" s="74" t="s">
+      <c r="AT105" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="AU105" s="74"/>
+      <c r="AU105" s="72"/>
     </row>
     <row r="106" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -17074,183 +17082,183 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:AM106" si="11">(C107/B107)-1</f>
+        <f t="shared" ref="C106:AM106" si="12">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.2949793015603395E-2</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.5811377567480438E-2</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.19485861182519271</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-7.9173838209982694E-3</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.26891047883414299</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.11977030352748153</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16422466422466431</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.2732039853172523</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.3351331451711865</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.5415598681801539</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.92292089249492903</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1603375527426074E-2</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.10879388251651023</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-6.4890282131661481E-2</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.22929936305732479</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12244341423506944</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.4295432458697808E-2</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12151394422310746</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0879218472468866E-2</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5258071601142129E-2</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.11289631533847477</v>
       </c>
       <c r="AB106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.8922040423484052E-2</v>
       </c>
       <c r="AC106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8545941123996332E-2</v>
       </c>
       <c r="AD106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.19566348655680832</v>
       </c>
       <c r="AE106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.10938633396199049</v>
       </c>
       <c r="AF106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.2884791421472483E-2</v>
       </c>
       <c r="AG106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-5.8552799795448696E-2</v>
       </c>
       <c r="AH106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-4.6034763715372073E-2</v>
       </c>
       <c r="AI106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.12697508896797149</v>
       </c>
       <c r="AJ106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.11674547529757051</v>
       </c>
       <c r="AK106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17648144729555115</v>
       </c>
       <c r="AL106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.6971598932998671E-2</v>
       </c>
       <c r="AM106" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.54641682162780714</v>
       </c>
-      <c r="AN106" s="48">
-        <f>(AN107/AM105)-1</f>
-        <v>-0.33830905696960689</v>
-      </c>
-      <c r="AO106" s="48">
+      <c r="AN106" s="47">
+        <f>(AN107/AM107)-1</f>
+        <v>-0.15280732587179724</v>
+      </c>
+      <c r="AO106" s="47">
         <f>(AO107/AN107)-1</f>
         <v>0.10699858063107337</v>
       </c>
-      <c r="AP106" s="48">
+      <c r="AP106" s="47">
         <f>(AP107/AO107)-1</f>
         <v>7.1308807574711475E-2</v>
       </c>
-      <c r="AQ106" s="48">
+      <c r="AQ106" s="47">
         <f>(AQ107/AP107)-1</f>
         <v>0.15264223899834284</v>
       </c>
-      <c r="AR106" s="48">
+      <c r="AR106" s="47">
         <f>(AR107/AQ107)-1</f>
         <v>7.1086261980830567E-2</v>
       </c>
-      <c r="AS106" s="49">
+      <c r="AS106" s="48">
         <f>SUM(AN106:AR106)/5</f>
-        <v>1.2745366443070272E-2</v>
+        <v>4.9845712662632199E-2</v>
       </c>
       <c r="AT106" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AU106" s="60">
+      <c r="AU106" s="59">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>6.1766831155947458E-2</v>
+        <v>6.2184343901116615E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17371,25 +17379,25 @@
       <c r="AM107" s="1">
         <v>10811000000</v>
       </c>
-      <c r="AN107" s="50">
+      <c r="AN107" s="49">
         <v>9159000000</v>
       </c>
-      <c r="AO107" s="50">
+      <c r="AO107" s="49">
         <v>10139000000</v>
       </c>
-      <c r="AP107" s="50">
+      <c r="AP107" s="49">
         <v>10862000000</v>
       </c>
-      <c r="AQ107" s="50">
+      <c r="AQ107" s="49">
         <v>12520000000</v>
       </c>
-      <c r="AR107" s="50">
+      <c r="AR107" s="49">
         <v>13410000000</v>
       </c>
-      <c r="AS107" s="47" t="s">
+      <c r="AS107" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="AT107" s="61" t="s">
+      <c r="AT107" s="60" t="s">
         <v>140</v>
       </c>
       <c r="AU107" s="32">
@@ -17398,18 +17406,18 @@
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.2">
-      <c r="AN108" s="47"/>
-      <c r="AO108" s="47"/>
-      <c r="AP108" s="47"/>
-      <c r="AQ108" s="47"/>
-      <c r="AR108" s="51">
+      <c r="AN108" s="46"/>
+      <c r="AO108" s="46"/>
+      <c r="AP108" s="46"/>
+      <c r="AQ108" s="46"/>
+      <c r="AR108" s="50">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>327489532278.10944</v>
-      </c>
-      <c r="AS108" s="52" t="s">
+        <v>324248257411.86743</v>
+      </c>
+      <c r="AS108" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="AT108" s="62" t="s">
+      <c r="AT108" s="61" t="s">
         <v>142</v>
       </c>
       <c r="AU108" s="33">
@@ -17417,120 +17425,120 @@
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.2">
-      <c r="AN109" s="51">
-        <f t="shared" ref="AN109:AP109" si="12">AN108+AN107</f>
+      <c r="AN109" s="50">
+        <f t="shared" ref="AN109:AP109" si="13">AN108+AN107</f>
         <v>9159000000</v>
       </c>
-      <c r="AO109" s="51">
-        <f t="shared" si="12"/>
+      <c r="AO109" s="50">
+        <f t="shared" si="13"/>
         <v>10139000000</v>
       </c>
-      <c r="AP109" s="51">
-        <f t="shared" si="12"/>
+      <c r="AP109" s="50">
+        <f t="shared" si="13"/>
         <v>10862000000</v>
       </c>
-      <c r="AQ109" s="51">
+      <c r="AQ109" s="50">
         <f>AQ108+AQ107</f>
         <v>12520000000</v>
       </c>
-      <c r="AR109" s="51">
+      <c r="AR109" s="50">
         <f>AR108+AR107</f>
-        <v>340899532278.10944</v>
-      </c>
-      <c r="AS109" s="52" t="s">
+        <v>337658257411.86743</v>
+      </c>
+      <c r="AS109" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="AT109" s="63" t="s">
+      <c r="AT109" s="62" t="s">
         <v>143</v>
       </c>
       <c r="AU109" s="32">
         <f>AU106</f>
-        <v>6.1766831155947458E-2</v>
+        <v>6.2184343901116615E-2</v>
       </c>
     </row>
     <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.2">
-      <c r="AN110" s="70" t="s">
+      <c r="AN110" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="AO110" s="70"/>
+      <c r="AO110" s="69"/>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN111" s="64" t="s">
+      <c r="AN111" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AO111" s="58">
+      <c r="AO111" s="57">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>289173020890.35693</v>
+        <v>286243007015.71515</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN112" s="64" t="s">
+      <c r="AN112" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="AO112" s="58">
+      <c r="AO112" s="57">
         <f>AM40</f>
         <v>5348000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN113" s="64" t="s">
+      <c r="AN113" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AO113" s="58">
+      <c r="AO113" s="57">
         <f>AU100</f>
         <v>39071000000</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN114" s="64" t="s">
+      <c r="AN114" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="AO114" s="58">
+      <c r="AO114" s="57">
         <f>AO111+AO112-AO113</f>
-        <v>255450020890.35693</v>
+        <v>252520007015.71515</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN115" s="64" t="s">
+      <c r="AN115" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="AO115" s="64">
+      <c r="AO115" s="63">
         <f>AM34*(1+(5*AS16))</f>
         <v>1337167932.2715361</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN116" s="65" t="s">
+      <c r="AN116" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="AO116" s="66">
+      <c r="AO116" s="65">
         <f>AO114/AO115</f>
-        <v>191.03809979678991</v>
+        <v>188.84689119544066</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN117" s="64" t="s">
+      <c r="AN117" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="AO117" s="67" cm="1">
+      <c r="AO117" s="66" cm="1">
         <f t="array" ref="AO117">_FV(A1,"Price")</f>
-        <v>168.91</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN118" s="65" t="s">
+      <c r="AN118" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="AO118" s="68">
+      <c r="AO118" s="67">
         <f>AO116/AO117-1</f>
-        <v>0.13100526787514011</v>
+        <v>0.18029306997150418</v>
       </c>
     </row>
     <row r="119" spans="40:41" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN119" s="65" t="s">
+      <c r="AN119" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="AO119" s="69" t="str">
+      <c r="AO119" s="68" t="str">
         <f>IF(AO116&gt;AO117,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Consumer/PepsiCo.xlsx
+++ b/Consumer/PepsiCo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCBED52-2E16-F14A-98F4-EDCA2EF5FFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07112C4-80A3-1A4C-8C26-93DF1167D73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1054,6 +1054,9 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,14 +1066,11 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2914,13 +2914,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Retirement"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2936,14 +2938,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2953,6 +2955,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3080,11 +3084,11 @@
     <v>Powered by Refinitiv</v>
     <v>196.88</v>
     <v>155.83000000000001</v>
-    <v>0.57940000000000003</v>
-    <v>-0.56000000000000005</v>
-    <v>-3.4879999999999998E-3</v>
-    <v>0.25</v>
-    <v>1.5629999999999999E-3</v>
+    <v>0.58630000000000004</v>
+    <v>-1.79</v>
+    <v>-1.1089999999999999E-2</v>
+    <v>-0.27</v>
+    <v>-1.6919999999999999E-3</v>
     <v>USD</v>
     <v>PepsiCo, Inc. is a beverage and convenient food company. The Company's segments include Frito-Lay North America, which includes its food businesses in the United States and Canada; Quaker Foods North America, which includes its food businesses, such as cereal, rice, pasta and other branded food, in the United States and Canada; PepsiCo Beverages North America, which includes its beverage businesses in the United States and Canada; Latin America, which includes its beverage and convenient food businesses in Latin America; Europe, which includes its beverage and convenient food businesses in Europe; Africa, Middle East and South Asia (AMESA), which includes all of its beverage and convenient food businesses in Africa, the Middle East and South Asia; and Asia Pacific, Australia and New Zealand and China Region (APAC), which includes all of its beverage and convenient food businesses in Asia Pacific, Australia and New Zealand, and China region. Its brands include Lays, Doritos and Cheetos.</v>
     <v>315000</v>
@@ -3092,25 +3096,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 ANDERSON HILL RD, PURCHASE, NY, 10577 US</v>
-    <v>162.22999999999999</v>
+    <v>162.13999999999999</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45219.998118935153</v>
+    <v>45226.999414142971</v>
     <v>0</v>
-    <v>159.71</v>
-    <v>219978240000</v>
+    <v>158.88999999999999</v>
+    <v>219455800000</v>
     <v>PEPSICO, INC.</v>
     <v>PEPSICO, INC.</v>
-    <v>161.37</v>
-    <v>26.755500000000001</v>
-    <v>160.56</v>
-    <v>160</v>
-    <v>160.25</v>
+    <v>162.02000000000001</v>
+    <v>26.5989</v>
+    <v>161.41</v>
+    <v>159.62</v>
+    <v>159.35</v>
     <v>1374864000</v>
     <v>PEP</v>
     <v>PEPSICO, INC. (XNAS:PEP)</v>
-    <v>5486488</v>
-    <v>6374929</v>
+    <v>5078025</v>
+    <v>6333652</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -3275,9 +3279,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3698,10 +3702,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR101" sqref="AR101"/>
+      <selection pane="bottomRight" activeCell="AL116" sqref="AL116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5916,15 +5920,15 @@
       </c>
       <c r="AT16" s="34">
         <f>AU102/AM3</f>
-        <v>2.5462802111306604</v>
+        <v>2.5402328919344384</v>
       </c>
       <c r="AU16" s="34">
         <f>AU102/AM28</f>
-        <v>24.688915824915824</v>
+        <v>24.630280583613917</v>
       </c>
       <c r="AV16" s="35">
         <f>AU102/AM107</f>
-        <v>20.347631116455464</v>
+        <v>20.299306262140412</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6316,15 +6320,15 @@
       </c>
       <c r="AT19" s="34">
         <f>AU102/AN3</f>
-        <v>2.3797382029035679</v>
+        <v>2.3740864146779463</v>
       </c>
       <c r="AU19" s="34">
         <f>AU102/AN28</f>
-        <v>21.233420849420849</v>
+        <v>21.182992277992277</v>
       </c>
       <c r="AV19" s="35">
         <f>AU102/AN107</f>
-        <v>24.017713724205699</v>
+        <v>23.960672562506822</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6773,11 +6777,11 @@
       </c>
       <c r="AU22" s="36">
         <f>AM98/AU102*-1</f>
-        <v>2.8057320578617231E-2</v>
+        <v>2.8124114286339208E-2</v>
       </c>
       <c r="AV22" s="37">
         <f>AN107/AU102</f>
-        <v>4.1635936354432149E-2</v>
+        <v>4.1735055532822557E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -14335,10 +14339,10 @@
       <c r="AM84" s="1">
         <v>1842000000</v>
       </c>
-      <c r="AT84" s="70" t="s">
+      <c r="AT84" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="AU84" s="71"/>
+      <c r="AU84" s="72"/>
     </row>
     <row r="85" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14458,10 +14462,10 @@
       <c r="AM85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT85" s="72" t="s">
+      <c r="AT85" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="AU85" s="72"/>
+      <c r="AU85" s="74"/>
     </row>
     <row r="86" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -15627,10 +15631,10 @@
       <c r="AM94" s="10">
         <v>-2430000000</v>
       </c>
-      <c r="AT94" s="72" t="s">
+      <c r="AT94" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="AU94" s="72"/>
+      <c r="AU94" s="74"/>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -15755,7 +15759,7 @@
       </c>
       <c r="AU95" s="54">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15881,7 +15885,7 @@
       </c>
       <c r="AU96" s="55" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>0.57940000000000003</v>
+        <v>0.58630000000000004</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16132,7 +16136,7 @@
       </c>
       <c r="AU98" s="53">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>6.9649128000000005E-2</v>
+        <v>6.9292965000000012E-2</v>
       </c>
     </row>
     <row r="99" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -16253,10 +16257,10 @@
       <c r="AM99" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT99" s="72" t="s">
+      <c r="AT99" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="AU99" s="72"/>
+      <c r="AU99" s="74"/>
     </row>
     <row r="100" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -16507,7 +16511,7 @@
       </c>
       <c r="AU101" s="53">
         <f>AU100/AU104</f>
-        <v>0.15082460770778558</v>
+        <v>0.15112939935047354</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16633,7 +16637,7 @@
       </c>
       <c r="AU102" s="57" cm="1">
         <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
-        <v>219978240000</v>
+        <v>219455800000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16759,7 +16763,7 @@
       </c>
       <c r="AU103" s="53">
         <f>AU102/AU104</f>
-        <v>0.84917539229221439</v>
+        <v>0.84887060064952646</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16893,7 +16897,7 @@
       </c>
       <c r="AU104" s="58">
         <f>AU100+AU102</f>
-        <v>259049240000</v>
+        <v>258526800000</v>
       </c>
     </row>
     <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -17048,33 +17052,33 @@
         <f t="shared" si="10"/>
         <v>13841809528.257824</v>
       </c>
-      <c r="AN105" s="74">
+      <c r="AN105" s="69">
         <f>AN107/AN3</f>
         <v>9.9082628356303687E-2</v>
       </c>
-      <c r="AO105" s="74">
+      <c r="AO105" s="69">
         <f t="shared" ref="AO105:AR105" si="11">AO107/AO3</f>
         <v>0.10483162215536049</v>
       </c>
-      <c r="AP105" s="74">
+      <c r="AP105" s="69">
         <f t="shared" si="11"/>
         <v>0.10786494538232373</v>
       </c>
-      <c r="AQ105" s="74">
+      <c r="AQ105" s="69">
         <f t="shared" si="11"/>
         <v>0.11935176358436607</v>
       </c>
-      <c r="AR105" s="74">
+      <c r="AR105" s="69">
         <f t="shared" si="11"/>
         <v>0.12224247948951686</v>
       </c>
       <c r="AS105" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="AT105" s="72" t="s">
+      <c r="AT105" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="AU105" s="72"/>
+      <c r="AU105" s="74"/>
     </row>
     <row r="106" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -17258,7 +17262,7 @@
       </c>
       <c r="AU106" s="59">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>6.2184343901116615E-2</v>
+        <v>6.1866922504572743E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17412,7 +17416,7 @@
       <c r="AQ108" s="46"/>
       <c r="AR108" s="50">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>324248257411.86743</v>
+        <v>326706602294.59314</v>
       </c>
       <c r="AS108" s="51" t="s">
         <v>141</v>
@@ -17443,7 +17447,7 @@
       </c>
       <c r="AR109" s="50">
         <f>AR108+AR107</f>
-        <v>337658257411.86743</v>
+        <v>340116602294.59314</v>
       </c>
       <c r="AS109" s="51" t="s">
         <v>138</v>
@@ -17453,14 +17457,14 @@
       </c>
       <c r="AU109" s="32">
         <f>AU106</f>
-        <v>6.2184343901116615E-2</v>
+        <v>6.1866922504572743E-2</v>
       </c>
     </row>
     <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.2">
-      <c r="AN110" s="69" t="s">
+      <c r="AN110" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="AO110" s="69"/>
+      <c r="AO110" s="70"/>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.2">
       <c r="AN111" s="63" t="s">
@@ -17468,7 +17472,7 @@
       </c>
       <c r="AO111" s="57">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>286243007015.71515</v>
+        <v>288465266325.23352</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.2">
@@ -17495,7 +17499,7 @@
       </c>
       <c r="AO114" s="57">
         <f>AO111+AO112-AO113</f>
-        <v>252520007015.71515</v>
+        <v>254742266325.23352</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.2">
@@ -17513,7 +17517,7 @@
       </c>
       <c r="AO116" s="65">
         <f>AO114/AO115</f>
-        <v>188.84689119544066</v>
+        <v>190.50880609474825</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.2">
@@ -17522,7 +17526,7 @@
       </c>
       <c r="AO117" s="66" cm="1">
         <f t="array" ref="AO117">_FV(A1,"Price")</f>
-        <v>160</v>
+        <v>159.62</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.2">
@@ -17531,7 +17535,7 @@
       </c>
       <c r="AO118" s="67">
         <f>AO116/AO117-1</f>
-        <v>0.18029306997150418</v>
+        <v>0.19351463535113544</v>
       </c>
     </row>
     <row r="119" spans="40:41" ht="20" x14ac:dyDescent="0.2">

--- a/Consumer/PepsiCo.xlsx
+++ b/Consumer/PepsiCo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828DA6F9-A0BD-334E-8DC4-A306684FAB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F3C2A4-9AD5-994E-994E-1720092D59BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1398,7 +1398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1715,7 +1715,10 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1749,10 +1752,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1772,7 +1777,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1785,6 +1790,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1912,11 +1919,11 @@
     <v>Powered by Refinitiv</v>
     <v>196.88</v>
     <v>155.83000000000001</v>
-    <v>0.54049999999999998</v>
-    <v>0.4</v>
-    <v>2.3769999999999998E-3</v>
-    <v>0.19</v>
-    <v>1.126E-3</v>
+    <v>0.54079999999999995</v>
+    <v>-1.78</v>
+    <v>-1.0629E-2</v>
+    <v>0.09</v>
+    <v>5.4319999999999998E-4</v>
     <v>USD</v>
     <v>PepsiCo, Inc. is a beverage and convenient food company. The Company's segments include Frito-Lay North America, which includes its food businesses in the United States and Canada; Quaker Foods North America, which includes its food businesses, such as cereal, rice, pasta and other branded food, in the United States and Canada; PepsiCo Beverages North America, which includes its beverage businesses in the United States and Canada; Latin America, which includes its beverage and convenient food businesses in Latin America; Europe, which includes its beverage and convenient food businesses in Europe; Africa, Middle East and South Asia (AMESA), which includes all of its beverage and convenient food businesses in Africa, the Middle East and South Asia; and Asia Pacific, Australia and New Zealand and China Region (APAC), which includes all of its beverage and convenient food businesses in Asia Pacific, Australia and New Zealand, and China region. Its brands include Lays, Doritos and Cheetos.</v>
     <v>315000</v>
@@ -1924,25 +1931,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 ANDERSON HILL RD, PURCHASE, NY, 10577 US</v>
-    <v>168.85</v>
+    <v>167.12</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45262.034370786721</v>
+    <v>45269.040511260937</v>
     <v>0</v>
-    <v>167.38</v>
-    <v>231925808160</v>
+    <v>165.27</v>
+    <v>227787467520</v>
     <v>PEPSICO, INC.</v>
     <v>PEPSICO, INC.</v>
-    <v>168.37</v>
-    <v>28.043600000000001</v>
-    <v>168.29</v>
-    <v>168.69</v>
-    <v>168.88</v>
+    <v>167.04</v>
+    <v>27.9053</v>
+    <v>167.46</v>
+    <v>165.68</v>
+    <v>165.77</v>
     <v>1374864000</v>
     <v>PEP</v>
     <v>PEPSICO, INC. (XNAS:PEP)</v>
-    <v>4897439</v>
-    <v>5016664</v>
+    <v>5115158</v>
+    <v>4894861</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -2107,9 +2114,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14056,7 +14063,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14109,7 +14116,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>231925808160</v>
+        <v>227787467520</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>201</v>
@@ -14137,14 +14144,14 @@
       </c>
       <c r="I3" s="40">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>224422135901.12579</v>
+        <v>223621823572.80859</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="42">
         <f>Financials!O172*-1/Model!A3</f>
-        <v>2.8142620486190914E-2</v>
+        <v>2.8653903004680983E-2</v>
       </c>
       <c r="L3" s="43" t="s">
         <v>206</v>
@@ -14189,14 +14196,14 @@
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>192825215025.85522</v>
+        <v>192119887626.95709</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="51" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.3769999999999998E-3</v>
+        <v>-1.0629E-2</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>213</v>
@@ -14241,14 +14248,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>158334215025.85522</v>
+        <v>157628887626.95709</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>168.69</v>
+        <v>165.68</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>220</v>
@@ -14268,7 +14275,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>2.5186057247108651</v>
+        <v>2.473665282293533</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>222</v>
@@ -14296,14 +14303,14 @@
       </c>
       <c r="I6" s="51">
         <f>N25</f>
-        <v>8.4374713401135379E-2</v>
+        <v>8.458720748765175E-2</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="59">
         <f>I5/G4</f>
-        <v>118.04365621746852</v>
+        <v>117.51781014571014</v>
       </c>
       <c r="L6" s="60" t="s">
         <v>226</v>
@@ -14323,14 +14330,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <f>O20/F12</f>
-        <v>22.210860769967439</v>
+        <v>21.814543911128137</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="63">
         <f>F15/A3</f>
-        <v>3.9629052380661972E-2</v>
+        <v>4.034901524682441E-2</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>229</v>
@@ -14357,7 +14364,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>-0.30023323126760015</v>
+        <v>-0.29069404788924347</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>232</v>
@@ -14684,7 +14691,7 @@
       </c>
       <c r="O14" s="89">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
@@ -14836,7 +14843,7 @@
       </c>
       <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
@@ -14919,24 +14926,24 @@
       </c>
       <c r="O20" s="105">
         <f>A3</f>
-        <v>231925808160</v>
+        <v>227787467520</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109" t="str" cm="1">
+      <c r="A21" s="120" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Beverages</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="120" cm="1">
+      <c r="B21" s="120"/>
+      <c r="C21" s="121" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1986</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
       <c r="H21" s="72"/>
@@ -14949,7 +14956,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>276699808160</v>
+        <v>272561467520</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
@@ -14977,7 +14984,7 @@
       </c>
       <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>0.16181435143644807</v>
+        <v>0.16427120240946963</v>
       </c>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
@@ -15002,7 +15009,7 @@
       </c>
       <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.83818564856355193</v>
+        <v>0.83572879759053043</v>
       </c>
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
@@ -15046,7 +15053,7 @@
       <c r="M25" s="72"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.4374713401135379E-2</v>
+        <v>8.458720748765175E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="44"/>
